--- a/Codemig/System/4.0Hz-dp=0.0005mm110mm.xlsx
+++ b/Codemig/System/4.0Hz-dp=0.0005mm110mm.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD41"/>
+  <dimension ref="A1:AD51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -348,7 +348,7 @@
   <sheetData>
     <row r="1" spans="1:30">
       <c r="A1">
-        <v>825</v>
+        <v>960</v>
       </c>
       <c r="B1">
         <v>0.25</v>
@@ -360,13 +360,13 @@
         <v>110</v>
       </c>
       <c r="E1">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F1">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G1">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H1">
         <v>14</v>
@@ -375,72 +375,72 @@
         <v>43</v>
       </c>
       <c r="J1">
-        <v>532.0911413876216</v>
+        <v>669.5668014856204</v>
       </c>
       <c r="K1">
-        <v>519.3754928517238</v>
+        <v>653.6176796530337</v>
       </c>
       <c r="L1">
-        <v>11.98964853589782</v>
+        <v>15.04052183258664</v>
       </c>
       <c r="M1">
-        <v>0.7260000000000001</v>
+        <v>0.9086000000000001</v>
       </c>
       <c r="N1">
-        <v>1918.192112238146</v>
+        <v>2074.461957734738</v>
       </c>
       <c r="O1">
-        <v>0.8468343528650295</v>
+        <v>21.59619295307278</v>
       </c>
       <c r="P1">
-        <v>55.02586405969507</v>
+        <v>49.31294754925476</v>
       </c>
       <c r="Q1">
-        <v>0.5853651903019541</v>
+        <v>46.09741525752243</v>
       </c>
       <c r="R1">
-        <v>51.66588404404253</v>
+        <v>106.2956095341806</v>
       </c>
       <c r="S1">
-        <v>783.8076210780739</v>
+        <v>789.8099336678906</v>
       </c>
       <c r="T1">
-        <v>897.9248038527006</v>
+        <v>932.5067046044251</v>
       </c>
       <c r="U1">
-        <v>142.7928452716496</v>
+        <v>152.8475242559013</v>
       </c>
       <c r="V1">
-        <v>180.9308136571688</v>
+        <v>196.1140272341883</v>
       </c>
       <c r="W1">
-        <v>374.4970274523522</v>
+        <v>407.4504853257802</v>
       </c>
       <c r="X1">
-        <v>0.2899999999999999</v>
+        <v>0.33</v>
       </c>
       <c r="Y1">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Z1">
-        <v>0.08659946109088895</v>
+        <v>0.07432711569317356</v>
       </c>
       <c r="AA1">
-        <v>0.135922321301533</v>
+        <v>0.1152453636142208</v>
       </c>
       <c r="AB1">
-        <v>4167.468985985867</v>
+        <v>4111.708716979687</v>
       </c>
       <c r="AC1">
-        <v>359.4601340825382</v>
+        <v>439.6970821774783</v>
       </c>
       <c r="AD1">
-        <v>489777.1657378367</v>
+        <v>437112.5177833243</v>
       </c>
     </row>
     <row r="2" spans="1:30">
       <c r="A2">
-        <v>810</v>
+        <v>905</v>
       </c>
       <c r="B2">
         <v>0.25</v>
@@ -452,13 +452,13 @@
         <v>110</v>
       </c>
       <c r="E2">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F2">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G2">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H2">
         <v>14</v>
@@ -467,72 +467,72 @@
         <v>43</v>
       </c>
       <c r="J2">
-        <v>537.1407386870436</v>
+        <v>684.1299384446719</v>
       </c>
       <c r="K2">
-        <v>524.4250901511458</v>
+        <v>667.6535363536897</v>
       </c>
       <c r="L2">
-        <v>11.98964853589782</v>
+        <v>15.53700209098219</v>
       </c>
       <c r="M2">
-        <v>0.7260000000000001</v>
+        <v>0.9394</v>
       </c>
       <c r="N2">
-        <v>1870.50883223971</v>
+        <v>1869.184915173864</v>
       </c>
       <c r="O2">
-        <v>0.8659438900593748</v>
+        <v>18.48719410403929</v>
       </c>
       <c r="P2">
-        <v>56.03206948300304</v>
+        <v>49.68458990071325</v>
       </c>
       <c r="Q2">
-        <v>0.5967861952339862</v>
+        <v>35.89442767874226</v>
       </c>
       <c r="R2">
-        <v>52.30749355388567</v>
+        <v>98.28842273815765</v>
       </c>
       <c r="S2">
-        <v>775.0649675622416</v>
+        <v>771.3815401915541</v>
       </c>
       <c r="T2">
-        <v>857.338037728861</v>
+        <v>766.8713838631652</v>
       </c>
       <c r="U2">
-        <v>142.7928452716496</v>
+        <v>157.8748637480271</v>
       </c>
       <c r="V2">
-        <v>180.9308136571688</v>
+        <v>201.235244717755</v>
       </c>
       <c r="W2">
-        <v>373.4157552774187</v>
+        <v>417.3047368173268</v>
       </c>
       <c r="X2">
-        <v>0.3099999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="Y2">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Z2">
-        <v>0.08815362204782436</v>
+        <v>0.07887637470093953</v>
       </c>
       <c r="AA2">
-        <v>0.1372260669012622</v>
+        <v>0.1169672993958189</v>
       </c>
       <c r="AB2">
-        <v>4130.943737142075</v>
+        <v>3934.057353692413</v>
       </c>
       <c r="AC2">
-        <v>362.2874087363241</v>
+        <v>450.3066926287197</v>
       </c>
       <c r="AD2">
-        <v>476298.9098493672</v>
+        <v>381317.2626943915</v>
       </c>
     </row>
     <row r="3" spans="1:30">
       <c r="A3">
-        <v>800</v>
+        <v>880</v>
       </c>
       <c r="B3">
         <v>0.25</v>
@@ -544,13 +544,13 @@
         <v>110</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F3">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G3">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H3">
         <v>14</v>
@@ -559,72 +559,72 @@
         <v>43</v>
       </c>
       <c r="J3">
-        <v>542.263199783078</v>
+        <v>694.00299302285</v>
       </c>
       <c r="K3">
-        <v>529.5475512471803</v>
+        <v>677.5265909318679</v>
       </c>
       <c r="L3">
-        <v>11.98964853589782</v>
+        <v>15.53700209098219</v>
       </c>
       <c r="M3">
-        <v>0.7260000000000001</v>
+        <v>0.9394</v>
       </c>
       <c r="N3">
-        <v>1839.546119551861</v>
+        <v>1797.938550608498</v>
       </c>
       <c r="O3">
-        <v>0.8803248698189244</v>
+        <v>17.14706381599926</v>
       </c>
       <c r="P3">
-        <v>56.78929451045285</v>
+        <v>49.77551910349278</v>
       </c>
       <c r="Q3">
-        <v>0.6062468569832005</v>
+        <v>32.49670046055175</v>
       </c>
       <c r="R3">
-        <v>52.83897485380881</v>
+        <v>96.34804875592673</v>
       </c>
       <c r="S3">
-        <v>769.2007771455112</v>
+        <v>758.2393955213528</v>
       </c>
       <c r="T3">
-        <v>830.9466756069226</v>
+        <v>715.4448981227714</v>
       </c>
       <c r="U3">
-        <v>142.7928452716496</v>
+        <v>157.8748637480271</v>
       </c>
       <c r="V3">
-        <v>180.9308136571688</v>
+        <v>201.235244717755</v>
       </c>
       <c r="W3">
-        <v>372.39020427919</v>
+        <v>415.5650561835709</v>
       </c>
       <c r="X3">
-        <v>0.3299999999999999</v>
+        <v>0.33</v>
       </c>
       <c r="Y3">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Z3">
-        <v>0.08932321380912479</v>
+        <v>0.0810350155671551</v>
       </c>
       <c r="AA3">
-        <v>0.1383060328236541</v>
+        <v>0.1188312118641155</v>
       </c>
       <c r="AB3">
-        <v>4112.053498564961</v>
+        <v>3886.340454999136</v>
       </c>
       <c r="AC3">
-        <v>365.1819486626646</v>
+        <v>455.7037695566513</v>
       </c>
       <c r="AD3">
-        <v>467407.505028894</v>
+        <v>365852.5047218718</v>
       </c>
     </row>
     <row r="4" spans="1:30">
       <c r="A4">
-        <v>885</v>
+        <v>990.0000000000001</v>
       </c>
       <c r="B4">
         <v>0.25</v>
@@ -636,13 +636,13 @@
         <v>110</v>
       </c>
       <c r="E4">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F4">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G4">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H4">
         <v>14</v>
@@ -651,72 +651,72 @@
         <v>43</v>
       </c>
       <c r="J4">
-        <v>503.3985603853491</v>
+        <v>650.5187369554444</v>
       </c>
       <c r="K4">
-        <v>491.0134336782511</v>
+        <v>634.1770123826749</v>
       </c>
       <c r="L4">
-        <v>11.68112670709799</v>
+        <v>15.41376457276962</v>
       </c>
       <c r="M4">
-        <v>0.7040000000000001</v>
+        <v>0.92796</v>
       </c>
       <c r="N4">
-        <v>2220.787609294046</v>
+        <v>2141.444528495093</v>
       </c>
       <c r="O4">
-        <v>1.431101634918804</v>
+        <v>23.41508461729665</v>
       </c>
       <c r="P4">
-        <v>113.4564509161368</v>
+        <v>49.10503377401081</v>
       </c>
       <c r="Q4">
-        <v>0.5609572614984983</v>
+        <v>50.21675466498863</v>
       </c>
       <c r="R4">
-        <v>50.2946947897634</v>
+        <v>106.398838260428</v>
       </c>
       <c r="S4">
-        <v>809.9053848948769</v>
+        <v>812.520471866005</v>
       </c>
       <c r="T4">
-        <v>1116.635258703721</v>
+        <v>970.748958392473</v>
       </c>
       <c r="U4">
-        <v>130.224496541335</v>
+        <v>147.8201847637754</v>
       </c>
       <c r="V4">
-        <v>170.1051592780355</v>
+        <v>192.9701866206873</v>
       </c>
       <c r="W4">
-        <v>366.4334779071788</v>
+        <v>416.2081888463129</v>
       </c>
       <c r="X4">
-        <v>0.2699999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="Y4">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Z4">
-        <v>0.08060287461952027</v>
+        <v>0.0720378530362947</v>
       </c>
       <c r="AA4">
-        <v>0.1331360752605423</v>
+        <v>0.1120828340316694</v>
       </c>
       <c r="AB4">
-        <v>4378.916521226042</v>
+        <v>4123.841295960406</v>
       </c>
       <c r="AC4">
-        <v>346.7300572347311</v>
+        <v>437.057031962115</v>
       </c>
       <c r="AD4">
-        <v>567780.6400188414</v>
+        <v>441249.5265420332</v>
       </c>
     </row>
     <row r="5" spans="1:30">
       <c r="A5">
-        <v>860</v>
+        <v>945</v>
       </c>
       <c r="B5">
         <v>0.25</v>
@@ -728,13 +728,13 @@
         <v>110</v>
       </c>
       <c r="E5">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F5">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G5">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H5">
         <v>14</v>
@@ -743,72 +743,72 @@
         <v>43</v>
       </c>
       <c r="J5">
-        <v>508.1455245115301</v>
+        <v>659.7232938573952</v>
       </c>
       <c r="K5">
-        <v>495.7603978044322</v>
+        <v>643.3815692846256</v>
       </c>
       <c r="L5">
-        <v>11.68112670709799</v>
+        <v>15.41376457276962</v>
       </c>
       <c r="M5">
-        <v>0.7040000000000001</v>
+        <v>0.92796</v>
       </c>
       <c r="N5">
-        <v>2137.993290385203</v>
+        <v>1997.33499311583</v>
       </c>
       <c r="O5">
-        <v>1.538072042232065</v>
+        <v>20.72190959988878</v>
       </c>
       <c r="P5">
-        <v>122.3797829436752</v>
+        <v>49.42218841028048</v>
       </c>
       <c r="Q5">
-        <v>0.5748756700637838</v>
+        <v>42.28599046458726</v>
       </c>
       <c r="R5">
-        <v>51.0766035053724</v>
+        <v>102.3001337156378</v>
       </c>
       <c r="S5">
-        <v>795.8526677841945</v>
+        <v>789.6778958977812</v>
       </c>
       <c r="T5">
-        <v>1038.146116592746</v>
+        <v>864.1669050379406</v>
       </c>
       <c r="U5">
-        <v>130.224496541335</v>
+        <v>147.8201847637754</v>
       </c>
       <c r="V5">
-        <v>170.1051592780355</v>
+        <v>192.9701866206873</v>
       </c>
       <c r="W5">
-        <v>365.3197288942858</v>
+        <v>414.1820082202524</v>
       </c>
       <c r="X5">
-        <v>0.2899999999999999</v>
+        <v>0.27</v>
       </c>
       <c r="Y5">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Z5">
-        <v>0.0829372261128954</v>
+        <v>0.07552716217471923</v>
       </c>
       <c r="AA5">
-        <v>0.134724907769609</v>
+        <v>0.1146799049643328</v>
       </c>
       <c r="AB5">
-        <v>4305.999661074422</v>
+        <v>4027.604134309352</v>
       </c>
       <c r="AC5">
-        <v>349.4655049128622</v>
+        <v>442.0928016083126</v>
       </c>
       <c r="AD5">
-        <v>543215.9912403903</v>
+        <v>411508.0500180669</v>
       </c>
     </row>
     <row r="6" spans="1:30">
       <c r="A6">
-        <v>845</v>
+        <v>910</v>
       </c>
       <c r="B6">
         <v>0.25</v>
@@ -820,13 +820,13 @@
         <v>110</v>
       </c>
       <c r="E6">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F6">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G6">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H6">
         <v>14</v>
@@ -835,72 +835,72 @@
         <v>43</v>
       </c>
       <c r="J6">
-        <v>512.9682178921008</v>
+        <v>669.1683642724588</v>
       </c>
       <c r="K6">
-        <v>500.5830911850029</v>
+        <v>652.8266396996894</v>
       </c>
       <c r="L6">
-        <v>11.68112670709799</v>
+        <v>15.41376457276962</v>
       </c>
       <c r="M6">
-        <v>0.7040000000000001</v>
+        <v>0.92796</v>
       </c>
       <c r="N6">
-        <v>2090.834743506745</v>
+        <v>1891.304901448102</v>
       </c>
       <c r="O6">
-        <v>1.610348499166773</v>
+        <v>18.74071245230237</v>
       </c>
       <c r="P6">
-        <v>128.4089908265035</v>
+        <v>49.59857508264604</v>
       </c>
       <c r="Q6">
-        <v>0.5858444800001523</v>
+        <v>36.84154879189721</v>
       </c>
       <c r="R6">
-        <v>51.69280959307818</v>
+        <v>99.242048332314</v>
       </c>
       <c r="S6">
-        <v>787.3430511612424</v>
+        <v>771.6129040097553</v>
       </c>
       <c r="T6">
-        <v>992.8095163005488</v>
+        <v>786.6716734516959</v>
       </c>
       <c r="U6">
-        <v>130.224496541335</v>
+        <v>147.8201847637754</v>
       </c>
       <c r="V6">
-        <v>170.1051592780355</v>
+        <v>192.9701866206873</v>
       </c>
       <c r="W6">
-        <v>364.2649540126404</v>
+        <v>412.3190283761032</v>
       </c>
       <c r="X6">
-        <v>0.3099999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="Y6">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Z6">
-        <v>0.08451447218888077</v>
+        <v>0.07838898240552002</v>
       </c>
       <c r="AA6">
-        <v>0.1359770338105232</v>
+        <v>0.1169345633832846</v>
       </c>
       <c r="AB6">
-        <v>4270.216726361946</v>
+        <v>3954.685356889038</v>
       </c>
       <c r="AC6">
-        <v>352.2707480672427</v>
+        <v>447.3479534076595</v>
       </c>
       <c r="AD6">
-        <v>528715.1270239609</v>
+        <v>389013.4648936958</v>
       </c>
     </row>
     <row r="7" spans="1:30">
       <c r="A7">
-        <v>830</v>
+        <v>885</v>
       </c>
       <c r="B7">
         <v>0.25</v>
@@ -912,13 +912,13 @@
         <v>110</v>
       </c>
       <c r="E7">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F7">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G7">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H7">
         <v>14</v>
@@ -927,72 +927,72 @@
         <v>43</v>
       </c>
       <c r="J7">
-        <v>517.8603815079629</v>
+        <v>678.8243403949871</v>
       </c>
       <c r="K7">
-        <v>505.4752548008649</v>
+        <v>662.4826158222176</v>
       </c>
       <c r="L7">
-        <v>11.68112670709799</v>
+        <v>15.41376457276962</v>
       </c>
       <c r="M7">
-        <v>0.7040000000000001</v>
+        <v>0.92796</v>
       </c>
       <c r="N7">
-        <v>1964.283267233975</v>
+        <v>1819.006605884249</v>
       </c>
       <c r="O7">
-        <v>0.8401471119387509</v>
+        <v>17.40756995394303</v>
       </c>
       <c r="P7">
-        <v>54.67374992848629</v>
+        <v>49.74909596621933</v>
       </c>
       <c r="Q7">
-        <v>0.5963648365984014</v>
+        <v>33.37512753417153</v>
       </c>
       <c r="R7">
-        <v>52.2838224575807</v>
+        <v>97.29805235123594</v>
       </c>
       <c r="S7">
-        <v>778.7731806145428</v>
+        <v>758.54088541822</v>
       </c>
       <c r="T7">
-        <v>948.7687699428345</v>
+        <v>734.1321135673285</v>
       </c>
       <c r="U7">
-        <v>130.224496541335</v>
+        <v>147.8201847637754</v>
       </c>
       <c r="V7">
-        <v>170.1051592780355</v>
+        <v>192.9701866206873</v>
       </c>
       <c r="W7">
-        <v>363.2645348232308</v>
+        <v>410.6001324103741</v>
       </c>
       <c r="X7">
-        <v>0.3299999999999999</v>
+        <v>0.33</v>
       </c>
       <c r="Y7">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Z7">
-        <v>0.08605559398141661</v>
+        <v>0.08058577394950489</v>
       </c>
       <c r="AA7">
-        <v>0.1371779674152431</v>
+        <v>0.1187862471436766</v>
       </c>
       <c r="AB7">
-        <v>4231.458647674659</v>
+        <v>3906.943021220668</v>
       </c>
       <c r="AC7">
-        <v>355.1400001284098</v>
+        <v>452.7953841980059</v>
       </c>
       <c r="AD7">
-        <v>514392.7065955126</v>
+        <v>373287.5153732179</v>
       </c>
     </row>
     <row r="8" spans="1:30">
       <c r="A8">
-        <v>750</v>
+        <v>995.0000000000001</v>
       </c>
       <c r="B8">
         <v>0.25</v>
@@ -1004,13 +1004,13 @@
         <v>110</v>
       </c>
       <c r="E8">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F8">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G8">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="H8">
         <v>14</v>
@@ -1019,72 +1019,72 @@
         <v>43</v>
       </c>
       <c r="J8">
-        <v>561.250296836538</v>
+        <v>662.7727441102401</v>
       </c>
       <c r="K8">
-        <v>547.6674360066331</v>
+        <v>645.8800644835295</v>
       </c>
       <c r="L8">
-        <v>12.80846082990483</v>
+        <v>15.93215962671058</v>
       </c>
       <c r="M8">
-        <v>0.7744000000000001</v>
+        <v>0.96052</v>
       </c>
       <c r="N8">
-        <v>1643.572374566207</v>
+        <v>2090.39419068798</v>
       </c>
       <c r="O8">
-        <v>0.9527016389431182</v>
+        <v>23.74716038340902</v>
       </c>
       <c r="P8">
-        <v>60.60026580052803</v>
+        <v>49.11897184080169</v>
       </c>
       <c r="Q8">
-        <v>0.627897264346637</v>
+        <v>49.94071426846396</v>
       </c>
       <c r="R8">
-        <v>54.05525199746006</v>
+        <v>104.580427773185</v>
       </c>
       <c r="S8">
-        <v>758.6337511961428</v>
+        <v>798.526637232205</v>
       </c>
       <c r="T8">
-        <v>640.4994622612838</v>
+        <v>935.4037850174245</v>
       </c>
       <c r="U8">
-        <v>142.7928452716496</v>
+        <v>152.8475242559013</v>
       </c>
       <c r="V8">
-        <v>182.9070477490772</v>
+        <v>198.0907932518355</v>
       </c>
       <c r="W8">
-        <v>385.5576901094947</v>
+        <v>415.5410714668041</v>
       </c>
       <c r="X8">
-        <v>0.2899999999999999</v>
+        <v>0.27</v>
       </c>
       <c r="Y8">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Z8">
-        <v>0.09520954939213597</v>
+        <v>0.07171428473037843</v>
       </c>
       <c r="AA8">
-        <v>0.1407774986447797</v>
+        <v>0.1105898722115955</v>
       </c>
       <c r="AB8">
-        <v>3923.938145558828</v>
+        <v>4089.461106116421</v>
       </c>
       <c r="AC8">
-        <v>385.1634309148991</v>
+        <v>439.2132299805833</v>
       </c>
       <c r="AD8">
-        <v>384299.6773567703</v>
+        <v>423046.9379475789</v>
       </c>
     </row>
     <row r="9" spans="1:30">
       <c r="A9">
-        <v>740</v>
+        <v>950</v>
       </c>
       <c r="B9">
         <v>0.25</v>
@@ -1096,13 +1096,13 @@
         <v>110</v>
       </c>
       <c r="E9">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F9">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G9">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="H9">
         <v>14</v>
@@ -1111,72 +1111,72 @@
         <v>43</v>
       </c>
       <c r="J9">
-        <v>566.566353888387</v>
+        <v>672.2408776405154</v>
       </c>
       <c r="K9">
-        <v>552.9834930584821</v>
+        <v>655.3481980138048</v>
       </c>
       <c r="L9">
-        <v>12.80846082990483</v>
+        <v>15.93215962671058</v>
       </c>
       <c r="M9">
-        <v>0.7744000000000001</v>
+        <v>0.96052</v>
       </c>
       <c r="N9">
-        <v>1617.799893798458</v>
+        <v>1951.06005539608</v>
       </c>
       <c r="O9">
-        <v>0.967642573683452</v>
+        <v>20.99160454682911</v>
       </c>
       <c r="P9">
-        <v>61.38697504482428</v>
+        <v>49.33312893820592</v>
       </c>
       <c r="Q9">
-        <v>0.6388534733006862</v>
+        <v>41.99193814914651</v>
       </c>
       <c r="R9">
-        <v>54.67075018685588</v>
+        <v>100.372266740464</v>
       </c>
       <c r="S9">
-        <v>752.4258564605884</v>
+        <v>776.1145793293646</v>
       </c>
       <c r="T9">
-        <v>619.5199156325607</v>
+        <v>833.4698353112522</v>
       </c>
       <c r="U9">
-        <v>142.7928452716496</v>
+        <v>152.8475242559013</v>
       </c>
       <c r="V9">
-        <v>182.9070477490772</v>
+        <v>198.0907932518355</v>
       </c>
       <c r="W9">
-        <v>384.4444828699525</v>
+        <v>413.6719785917048</v>
       </c>
       <c r="X9">
-        <v>0.3099999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="Y9">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Z9">
-        <v>0.09642468177328112</v>
+        <v>0.07507186017213083</v>
       </c>
       <c r="AA9">
-        <v>0.1420281862417611</v>
+        <v>0.1130481488540781</v>
       </c>
       <c r="AB9">
-        <v>3906.014991474082</v>
+        <v>3991.30306525294</v>
       </c>
       <c r="AC9">
-        <v>388.2246212552713</v>
+        <v>444.366257675624</v>
       </c>
       <c r="AD9">
-        <v>376735.0838306113</v>
+        <v>394801.5009369089</v>
       </c>
     </row>
     <row r="10" spans="1:30">
       <c r="A10">
-        <v>790</v>
+        <v>924.9999999999999</v>
       </c>
       <c r="B10">
         <v>0.25</v>
@@ -1188,13 +1188,13 @@
         <v>110</v>
       </c>
       <c r="E10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F10">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="G10">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="H10">
         <v>14</v>
@@ -1203,72 +1203,72 @@
         <v>43</v>
       </c>
       <c r="J10">
-        <v>527.9539304643125</v>
+        <v>681.9212419260998</v>
       </c>
       <c r="K10">
-        <v>514.7571498162864</v>
+        <v>665.0285622993893</v>
       </c>
       <c r="L10">
-        <v>12.44878064802613</v>
+        <v>15.93215962671058</v>
       </c>
       <c r="M10">
-        <v>0.748</v>
+        <v>0.96052</v>
       </c>
       <c r="N10">
-        <v>1774.706228776267</v>
+        <v>1878.205860073698</v>
       </c>
       <c r="O10">
-        <v>0.8925255693759157</v>
+        <v>19.59748837117242</v>
       </c>
       <c r="P10">
-        <v>57.43171771189117</v>
+        <v>49.58969939079515</v>
       </c>
       <c r="Q10">
-        <v>0.5957445597773214</v>
+        <v>38.24250552400183</v>
       </c>
       <c r="R10">
-        <v>52.24897653031697</v>
+        <v>98.58339807652118</v>
       </c>
       <c r="S10">
-        <v>774.530908183558</v>
+        <v>763.4829997858902</v>
       </c>
       <c r="T10">
-        <v>760.7409420457135</v>
+        <v>780.0476168012565</v>
       </c>
       <c r="U10">
-        <v>130.224496541335</v>
+        <v>152.8475242559013</v>
       </c>
       <c r="V10">
-        <v>172.0829152915899</v>
+        <v>198.0907932518355</v>
       </c>
       <c r="W10">
-        <v>379.1752999684942</v>
+        <v>411.9474423801772</v>
       </c>
       <c r="X10">
-        <v>0.2499999999999999</v>
+        <v>0.33</v>
       </c>
       <c r="Y10">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Z10">
-        <v>0.09031548540136335</v>
+        <v>0.0772047483609383</v>
       </c>
       <c r="AA10">
-        <v>0.1371071607584813</v>
+        <v>0.1148211394573484</v>
       </c>
       <c r="AB10">
-        <v>4025.454052565834</v>
+        <v>3947.219069029651</v>
       </c>
       <c r="AC10">
-        <v>369.8563147267786</v>
+        <v>449.7128282893123</v>
       </c>
       <c r="AD10">
-        <v>433333.4480007229</v>
+        <v>379482.6243898005</v>
       </c>
     </row>
     <row r="11" spans="1:30">
       <c r="A11">
-        <v>780</v>
+        <v>910</v>
       </c>
       <c r="B11">
         <v>0.25</v>
@@ -1280,13 +1280,13 @@
         <v>110</v>
       </c>
       <c r="E11">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F11">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="G11">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H11">
         <v>14</v>
@@ -1295,72 +1295,72 @@
         <v>43</v>
       </c>
       <c r="J11">
-        <v>532.8823237812685</v>
+        <v>673.5836215903472</v>
       </c>
       <c r="K11">
-        <v>519.6855431332423</v>
+        <v>656.6909419636366</v>
       </c>
       <c r="L11">
-        <v>12.44878064802613</v>
+        <v>15.93215962671058</v>
       </c>
       <c r="M11">
-        <v>0.748</v>
+        <v>0.96052</v>
       </c>
       <c r="N11">
-        <v>1746.356056062836</v>
+        <v>1860.226024320807</v>
       </c>
       <c r="O11">
-        <v>0.9085924319962484</v>
+        <v>18.7761987931122</v>
       </c>
       <c r="P11">
-        <v>58.27771226108972</v>
+        <v>49.70747283223228</v>
       </c>
       <c r="Q11">
-        <v>0.6075473583690264</v>
+        <v>35.79069824238929</v>
       </c>
       <c r="R11">
-        <v>52.91203445422715</v>
+        <v>96.73970913192807</v>
       </c>
       <c r="S11">
-        <v>768.5188165616752</v>
+        <v>781.5445774029527</v>
       </c>
       <c r="T11">
-        <v>736.8831429604288</v>
+        <v>749.0699285907015</v>
       </c>
       <c r="U11">
-        <v>130.224496541335</v>
+        <v>152.8475242559013</v>
       </c>
       <c r="V11">
-        <v>172.0829152915899</v>
+        <v>198.0907932518355</v>
       </c>
       <c r="W11">
-        <v>377.9603886475171</v>
+        <v>424.2645192957249</v>
       </c>
       <c r="X11">
-        <v>0.2699999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="Y11">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Z11">
-        <v>0.0916221884539289</v>
+        <v>0.07849937963275644</v>
       </c>
       <c r="AA11">
-        <v>0.1384544893709809</v>
+        <v>0.1154789349560885</v>
       </c>
       <c r="AB11">
-        <v>4013.55565908316</v>
+        <v>3905.456521038039</v>
       </c>
       <c r="AC11">
-        <v>372.7462251444913</v>
+        <v>452.3827749983089</v>
       </c>
       <c r="AD11">
-        <v>425124.8901694781</v>
+        <v>370419.1954569403</v>
       </c>
     </row>
     <row r="12" spans="1:30">
       <c r="A12">
-        <v>765</v>
+        <v>880</v>
       </c>
       <c r="B12">
         <v>0.25</v>
@@ -1372,13 +1372,13 @@
         <v>110</v>
       </c>
       <c r="E12">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F12">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="G12">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H12">
         <v>14</v>
@@ -1387,72 +1387,72 @@
         <v>43</v>
       </c>
       <c r="J12">
-        <v>537.8984885867649</v>
+        <v>683.104776802491</v>
       </c>
       <c r="K12">
-        <v>524.7017079387387</v>
+        <v>666.2120971757804</v>
       </c>
       <c r="L12">
-        <v>12.44878064802613</v>
+        <v>15.93215962671058</v>
       </c>
       <c r="M12">
-        <v>0.748</v>
+        <v>0.96052</v>
       </c>
       <c r="N12">
-        <v>1704.166436878236</v>
+        <v>1777.119357756254</v>
       </c>
       <c r="O12">
-        <v>0.9282049599461433</v>
+        <v>17.16071156862591</v>
       </c>
       <c r="P12">
-        <v>59.31040247159902</v>
+        <v>49.82143354697121</v>
       </c>
       <c r="Q12">
-        <v>0.6204489223944447</v>
+        <v>31.8544841191934</v>
       </c>
       <c r="R12">
-        <v>53.63681885103116</v>
+        <v>94.67149658380382</v>
       </c>
       <c r="S12">
-        <v>759.4430030455147</v>
+        <v>765.6343223733121</v>
       </c>
       <c r="T12">
-        <v>702.0030702093436</v>
+        <v>689.4899847359439</v>
       </c>
       <c r="U12">
-        <v>130.224496541335</v>
+        <v>152.8475242559013</v>
       </c>
       <c r="V12">
-        <v>172.0829152915899</v>
+        <v>198.0907932518355</v>
       </c>
       <c r="W12">
-        <v>376.8116043929423</v>
+        <v>422.1991189207233</v>
       </c>
       <c r="X12">
-        <v>0.2899999999999999</v>
+        <v>0.27</v>
       </c>
       <c r="Y12">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Z12">
-        <v>0.09321725718304238</v>
+        <v>0.08108293484911394</v>
       </c>
       <c r="AA12">
-        <v>0.1399272457026578</v>
+        <v>0.117825355705212</v>
       </c>
       <c r="AB12">
-        <v>3978.243537123124</v>
+        <v>3853.444219902867</v>
       </c>
       <c r="AC12">
-        <v>375.7172473267779</v>
+        <v>457.5728538440886</v>
       </c>
       <c r="AD12">
-        <v>412942.9824760844</v>
+        <v>352580.1058308805</v>
       </c>
     </row>
     <row r="13" spans="1:30">
       <c r="A13">
-        <v>760</v>
+        <v>860</v>
       </c>
       <c r="B13">
         <v>0.25</v>
@@ -1464,13 +1464,13 @@
         <v>110</v>
       </c>
       <c r="E13">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F13">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="G13">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H13">
         <v>14</v>
@@ -1479,72 +1479,72 @@
         <v>43</v>
       </c>
       <c r="J13">
-        <v>542.9950294889643</v>
+        <v>692.8754296912421</v>
       </c>
       <c r="K13">
-        <v>529.7982488409382</v>
+        <v>675.9827500645315</v>
       </c>
       <c r="L13">
-        <v>12.44878064802613</v>
+        <v>15.93215962671058</v>
       </c>
       <c r="M13">
-        <v>0.748</v>
+        <v>0.96052</v>
       </c>
       <c r="N13">
-        <v>1690.829526516201</v>
+        <v>1724.273657656194</v>
       </c>
       <c r="O13">
-        <v>0.9391127715070641</v>
+        <v>16.16901612697425</v>
       </c>
       <c r="P13">
-        <v>59.8847491466335</v>
+        <v>50.02396542039268</v>
       </c>
       <c r="Q13">
-        <v>0.6294279921200975</v>
+        <v>29.55641382438857</v>
       </c>
       <c r="R13">
-        <v>54.14124526182498</v>
+        <v>93.69190844766389</v>
       </c>
       <c r="S13">
-        <v>756.4020736780634</v>
+        <v>754.9083701623816</v>
       </c>
       <c r="T13">
-        <v>690.615818565189</v>
+        <v>651.4988118274736</v>
       </c>
       <c r="U13">
-        <v>130.224496541335</v>
+        <v>152.8475242559013</v>
       </c>
       <c r="V13">
-        <v>172.0829152915899</v>
+        <v>198.0907932518355</v>
       </c>
       <c r="W13">
-        <v>375.7236494209261</v>
+        <v>420.3000783222516</v>
       </c>
       <c r="X13">
-        <v>0.3099999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="Y13">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Z13">
-        <v>0.09410437939229234</v>
+        <v>0.0830317453694048</v>
       </c>
       <c r="AA13">
-        <v>0.1409522362979818</v>
+        <v>0.1197157925479884</v>
       </c>
       <c r="AB13">
-        <v>3981.192781964578</v>
+        <v>3826.286992294222</v>
       </c>
       <c r="AC13">
-        <v>378.7625251685608</v>
+        <v>462.9908899775132</v>
       </c>
       <c r="AD13">
-        <v>408917.2609925461</v>
+        <v>340900.5410725152</v>
       </c>
     </row>
     <row r="14" spans="1:30">
       <c r="A14">
-        <v>750</v>
+        <v>840</v>
       </c>
       <c r="B14">
         <v>0.25</v>
@@ -1556,13 +1556,13 @@
         <v>110</v>
       </c>
       <c r="E14">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F14">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="G14">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H14">
         <v>14</v>
@@ -1571,72 +1571,72 @@
         <v>43</v>
       </c>
       <c r="J14">
-        <v>548.1653028241963</v>
+        <v>702.8648645707166</v>
       </c>
       <c r="K14">
-        <v>534.9685221761702</v>
+        <v>685.972184944006</v>
       </c>
       <c r="L14">
-        <v>12.44878064802613</v>
+        <v>15.93215962671058</v>
       </c>
       <c r="M14">
-        <v>0.748</v>
+        <v>0.96052</v>
       </c>
       <c r="N14">
-        <v>1663.647867307514</v>
+        <v>1672.252416964315</v>
       </c>
       <c r="O14">
-        <v>0.95360149983429</v>
+        <v>15.17600236594492</v>
       </c>
       <c r="P14">
-        <v>60.64764763399219</v>
+        <v>50.08815152456722</v>
       </c>
       <c r="Q14">
-        <v>0.6395651047257974</v>
+        <v>27.27344117918165</v>
       </c>
       <c r="R14">
-        <v>54.71072823542269</v>
+        <v>92.39570474794903</v>
       </c>
       <c r="S14">
-        <v>750.2962976812718</v>
+        <v>744.0835345779577</v>
       </c>
       <c r="T14">
-        <v>668.1969827447649</v>
+        <v>614.8641438638649</v>
       </c>
       <c r="U14">
-        <v>130.224496541335</v>
+        <v>152.8475242559013</v>
       </c>
       <c r="V14">
-        <v>172.0829152915899</v>
+        <v>198.0907932518355</v>
       </c>
       <c r="W14">
-        <v>374.6917600100587</v>
+        <v>418.5479105606299</v>
       </c>
       <c r="X14">
-        <v>0.3299999999999999</v>
+        <v>0.33</v>
       </c>
       <c r="Y14">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Z14">
-        <v>0.09528273424478358</v>
+        <v>0.08491471222237987</v>
       </c>
       <c r="AA14">
-        <v>0.1421094213296224</v>
+        <v>0.1214887453084831</v>
       </c>
       <c r="AB14">
-        <v>3961.063270527674</v>
+        <v>3792.651849539601</v>
       </c>
       <c r="AC14">
-        <v>381.8759023176694</v>
+        <v>468.6087208373093</v>
       </c>
       <c r="AD14">
-        <v>400918.1896468589</v>
+        <v>329391.5056413562</v>
       </c>
     </row>
     <row r="15" spans="1:30">
       <c r="A15">
-        <v>720</v>
+        <v>970</v>
       </c>
       <c r="B15">
         <v>0.25</v>
@@ -1648,13 +1648,13 @@
         <v>110</v>
       </c>
       <c r="E15">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F15">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G15">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="H15">
         <v>14</v>
@@ -1663,72 +1663,72 @@
         <v>43</v>
       </c>
       <c r="J15">
-        <v>586.2966533863515</v>
+        <v>684.395250459324</v>
       </c>
       <c r="K15">
-        <v>571.8369137584745</v>
+        <v>666.9492016932843</v>
       </c>
       <c r="L15">
-        <v>13.63693962787697</v>
+        <v>16.45296876603961</v>
       </c>
       <c r="M15">
-        <v>0.8228000000000001</v>
+        <v>0.9930800000000001</v>
       </c>
       <c r="N15">
-        <v>1534.610883599372</v>
+        <v>1950.816905590197</v>
       </c>
       <c r="O15">
-        <v>1.003018865649112</v>
+        <v>22.1939216668932</v>
       </c>
       <c r="P15">
-        <v>63.24970026262322</v>
+        <v>49.24705889840394</v>
       </c>
       <c r="Q15">
-        <v>0.6506487276253154</v>
+        <v>44.31579967876342</v>
       </c>
       <c r="R15">
-        <v>55.33338428873557</v>
+        <v>100.0762427537264</v>
       </c>
       <c r="S15">
-        <v>758.1004557578411</v>
+        <v>769.2729489163908</v>
       </c>
       <c r="T15">
-        <v>528.1075721436381</v>
+        <v>836.8070805041137</v>
       </c>
       <c r="U15">
-        <v>142.7928452716496</v>
+        <v>157.8748637480271</v>
       </c>
       <c r="V15">
-        <v>184.8838013976927</v>
+        <v>203.2116672506882</v>
       </c>
       <c r="W15">
-        <v>398.0336628315601</v>
+        <v>413.0950238710588</v>
       </c>
       <c r="X15">
-        <v>0.2699999999999999</v>
+        <v>0.33</v>
       </c>
       <c r="Y15">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Z15">
-        <v>0.09930180282624132</v>
+        <v>0.07355277323290824</v>
       </c>
       <c r="AA15">
-        <v>0.1433746536511475</v>
+        <v>0.1107424451676388</v>
       </c>
       <c r="AB15">
-        <v>3836.476332258864</v>
+        <v>3992.211007542409</v>
       </c>
       <c r="AC15">
-        <v>408.9777335455895</v>
+        <v>445.892683460159</v>
       </c>
       <c r="AD15">
-        <v>330067.2325897738</v>
+        <v>388209.47033696</v>
       </c>
     </row>
     <row r="16" spans="1:30">
       <c r="A16">
-        <v>710</v>
+        <v>890</v>
       </c>
       <c r="B16">
         <v>0.25</v>
@@ -1740,13 +1740,13 @@
         <v>110</v>
       </c>
       <c r="E16">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F16">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G16">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="H16">
         <v>14</v>
@@ -1755,72 +1755,72 @@
         <v>43</v>
       </c>
       <c r="J16">
-        <v>591.8037151522923</v>
+        <v>695.9172939199864</v>
       </c>
       <c r="K16">
-        <v>577.3439755244153</v>
+        <v>678.4712451539468</v>
       </c>
       <c r="L16">
-        <v>13.63693962787697</v>
+        <v>16.45296876603961</v>
       </c>
       <c r="M16">
-        <v>0.8228000000000001</v>
+        <v>0.9930800000000001</v>
       </c>
       <c r="N16">
-        <v>1511.804159477481</v>
+        <v>1753.407187462513</v>
       </c>
       <c r="O16">
-        <v>1.018207187505594</v>
+        <v>17.68976789758043</v>
       </c>
       <c r="P16">
-        <v>64.0494355815645</v>
+        <v>49.78549751730449</v>
       </c>
       <c r="Q16">
-        <v>0.6626252568622788</v>
+        <v>32.49304993146843</v>
       </c>
       <c r="R16">
-        <v>56.00620205731899</v>
+        <v>93.75038267145779</v>
       </c>
       <c r="S16">
-        <v>751.6318917383976</v>
+        <v>754.8449735129379</v>
       </c>
       <c r="T16">
-        <v>510.2804569354687</v>
+        <v>676.3223167840987</v>
       </c>
       <c r="U16">
-        <v>142.7928452716496</v>
+        <v>157.8748637480271</v>
       </c>
       <c r="V16">
-        <v>184.8838013976927</v>
+        <v>203.2116672506882</v>
       </c>
       <c r="W16">
-        <v>396.8238672593631</v>
+        <v>421.6215187990252</v>
       </c>
       <c r="X16">
-        <v>0.2899999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="Y16">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Z16">
-        <v>0.1005370549723633</v>
+        <v>0.08020609386402802</v>
       </c>
       <c r="AA16">
-        <v>0.1447418141931175</v>
+        <v>0.1160711597069225</v>
       </c>
       <c r="AB16">
-        <v>3819.266869781432</v>
+        <v>3839.210948211841</v>
       </c>
       <c r="AC16">
-        <v>412.2032253341085</v>
+        <v>459.8153708305906</v>
       </c>
       <c r="AD16">
-        <v>323417.1910154379</v>
+        <v>341960.7219694881</v>
       </c>
     </row>
     <row r="17" spans="1:30">
       <c r="A17">
-        <v>705</v>
+        <v>870</v>
       </c>
       <c r="B17">
         <v>0.25</v>
@@ -1832,13 +1832,13 @@
         <v>110</v>
       </c>
       <c r="E17">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F17">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G17">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="H17">
         <v>14</v>
@@ -1847,72 +1847,72 @@
         <v>43</v>
       </c>
       <c r="J17">
-        <v>597.3995748714926</v>
+        <v>705.9305374187874</v>
       </c>
       <c r="K17">
-        <v>582.9398352436157</v>
+        <v>688.4844886527478</v>
       </c>
       <c r="L17">
-        <v>13.63693962787697</v>
+        <v>16.45296876603961</v>
       </c>
       <c r="M17">
-        <v>0.8228000000000001</v>
+        <v>0.9930800000000001</v>
       </c>
       <c r="N17">
-        <v>1501.325337743086</v>
+        <v>1701.601923784532</v>
       </c>
       <c r="O17">
-        <v>1.112131510201809</v>
+        <v>16.65795592151964</v>
       </c>
       <c r="P17">
-        <v>64.9571273689217</v>
+        <v>49.91392410667227</v>
       </c>
       <c r="Q17">
-        <v>0.672087406863092</v>
+        <v>30.09616850385292</v>
       </c>
       <c r="R17">
-        <v>56.53776696427887</v>
+        <v>92.58223148513454</v>
       </c>
       <c r="S17">
-        <v>748.3840829553601</v>
+        <v>744.3533019257245</v>
       </c>
       <c r="T17">
-        <v>501.5119204700833</v>
+        <v>639.5433709908116</v>
       </c>
       <c r="U17">
-        <v>142.7928452716496</v>
+        <v>157.8748637480271</v>
       </c>
       <c r="V17">
-        <v>184.8838013976927</v>
+        <v>203.2116672506882</v>
       </c>
       <c r="W17">
-        <v>395.678131580402</v>
+        <v>419.8638421509634</v>
       </c>
       <c r="X17">
-        <v>0.3099999999999999</v>
+        <v>0.33</v>
       </c>
       <c r="Y17">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Z17">
-        <v>0.1014298379519415</v>
+        <v>0.0820378661077794</v>
       </c>
       <c r="AA17">
-        <v>0.1458219500043663</v>
+        <v>0.1177910523382992</v>
       </c>
       <c r="AB17">
-        <v>3820.671190601069</v>
+        <v>3808.545947991051</v>
       </c>
       <c r="AC17">
-        <v>415.5110695855324</v>
+        <v>465.3280113665118</v>
       </c>
       <c r="AD17">
-        <v>320113.9917894149</v>
+        <v>330798.295340075</v>
       </c>
     </row>
     <row r="18" spans="1:30">
       <c r="A18">
-        <v>740</v>
+        <v>865</v>
       </c>
       <c r="B18">
         <v>0.25</v>
@@ -1924,13 +1924,13 @@
         <v>110</v>
       </c>
       <c r="E18">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F18">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G18">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H18">
         <v>14</v>
@@ -1939,72 +1939,72 @@
         <v>43</v>
       </c>
       <c r="J18">
-        <v>558.6542308518102</v>
+        <v>679.8950721975502</v>
       </c>
       <c r="K18">
-        <v>544.6361297162504</v>
+        <v>663.2008426196695</v>
       </c>
       <c r="L18">
-        <v>13.22610113555976</v>
+        <v>15.75042957788077</v>
       </c>
       <c r="M18">
-        <v>0.792</v>
+        <v>0.9438000000000001</v>
       </c>
       <c r="N18">
-        <v>1598.213061384323</v>
+        <v>1745.829470615524</v>
       </c>
       <c r="O18">
-        <v>0.9693363461356158</v>
+        <v>16.38887817349526</v>
       </c>
       <c r="P18">
-        <v>61.47615999001077</v>
+        <v>49.88594521365475</v>
       </c>
       <c r="Q18">
-        <v>0.6309345242575537</v>
+        <v>30.31683155796961</v>
       </c>
       <c r="R18">
-        <v>54.22587926312597</v>
+        <v>94.47724133476923</v>
       </c>
       <c r="S18">
-        <v>761.8455295900269</v>
+        <v>754.2488756496768</v>
       </c>
       <c r="T18">
-        <v>590.8753212441221</v>
+        <v>672.0718868730086</v>
       </c>
       <c r="U18">
-        <v>130.224496541335</v>
+        <v>142.7928452716496</v>
       </c>
       <c r="V18">
-        <v>174.061188554471</v>
+        <v>189.8278503424793</v>
       </c>
       <c r="W18">
-        <v>390.9677407120239</v>
+        <v>415.9531525668244</v>
       </c>
       <c r="X18">
-        <v>0.2499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="Y18">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Z18">
-        <v>0.09656243471770432</v>
+        <v>0.08244426707714206</v>
       </c>
       <c r="AA18">
-        <v>0.1411242119390701</v>
+        <v>0.1195652077412662</v>
       </c>
       <c r="AB18">
-        <v>3881.154171437925</v>
+        <v>3843.691960309267</v>
       </c>
       <c r="AC18">
-        <v>397.060961050807</v>
+        <v>461.5428035315302</v>
       </c>
       <c r="AD18">
-        <v>359316.0737295337</v>
+        <v>349632.7735177501</v>
       </c>
     </row>
     <row r="19" spans="1:30">
       <c r="A19">
-        <v>730</v>
+        <v>924.9999999999999</v>
       </c>
       <c r="B19">
         <v>0.25</v>
@@ -2016,13 +2016,13 @@
         <v>110</v>
       </c>
       <c r="E19">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F19">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G19">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="H19">
         <v>14</v>
@@ -2031,72 +2031,72 @@
         <v>43</v>
       </c>
       <c r="J19">
-        <v>563.8607233941888</v>
+        <v>672.5842025758089</v>
       </c>
       <c r="K19">
-        <v>549.842622258629</v>
+        <v>655.3153420370867</v>
       </c>
       <c r="L19">
-        <v>13.22610113555976</v>
+        <v>16.29074053872227</v>
       </c>
       <c r="M19">
-        <v>0.792</v>
+        <v>0.9781200000000001</v>
       </c>
       <c r="N19">
-        <v>1573.925347680451</v>
+        <v>1856.935390223059</v>
       </c>
       <c r="O19">
-        <v>0.985112704815964</v>
+        <v>19.6004780423991</v>
       </c>
       <c r="P19">
-        <v>62.30685816458067</v>
+        <v>49.59847141392484</v>
       </c>
       <c r="Q19">
-        <v>0.643594612905358</v>
+        <v>37.44763205592424</v>
       </c>
       <c r="R19">
-        <v>54.937098049934</v>
+        <v>96.77363436643876</v>
       </c>
       <c r="S19">
-        <v>755.5243817336341</v>
+        <v>770.0458209565106</v>
       </c>
       <c r="T19">
-        <v>571.3506966098309</v>
+        <v>754.8072012638011</v>
       </c>
       <c r="U19">
-        <v>130.224496541335</v>
+        <v>147.8201847637754</v>
       </c>
       <c r="V19">
-        <v>174.061188554471</v>
+        <v>194.9477859829434</v>
       </c>
       <c r="W19">
-        <v>389.7150453640743</v>
+        <v>418.9404943615253</v>
       </c>
       <c r="X19">
-        <v>0.2699999999999999</v>
+        <v>0.27</v>
       </c>
       <c r="Y19">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Z19">
-        <v>0.09784551135395386</v>
+        <v>0.07721351552831802</v>
       </c>
       <c r="AA19">
-        <v>0.1425694030553496</v>
+        <v>0.113784173910033</v>
       </c>
       <c r="AB19">
-        <v>3867.914241309547</v>
+        <v>3911.571189191194</v>
       </c>
       <c r="AC19">
-        <v>400.1948872597438</v>
+        <v>452.6168998065639</v>
       </c>
       <c r="AD19">
-        <v>352202.4842115396</v>
+        <v>367203.5033175249</v>
       </c>
     </row>
     <row r="20" spans="1:30">
       <c r="A20">
-        <v>720</v>
+        <v>895</v>
       </c>
       <c r="B20">
         <v>0.25</v>
@@ -2108,13 +2108,13 @@
         <v>110</v>
       </c>
       <c r="E20">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F20">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G20">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="H20">
         <v>14</v>
@@ -2123,72 +2123,72 @@
         <v>43</v>
       </c>
       <c r="J20">
-        <v>569.1603181871748</v>
+        <v>682.1847896424852</v>
       </c>
       <c r="K20">
-        <v>555.142217051615</v>
+        <v>664.9159291037629</v>
       </c>
       <c r="L20">
-        <v>13.22610113555976</v>
+        <v>16.29074053872227</v>
       </c>
       <c r="M20">
-        <v>0.792</v>
+        <v>0.9781200000000001</v>
       </c>
       <c r="N20">
-        <v>1549.955649697097</v>
+        <v>1774.327763997289</v>
       </c>
       <c r="O20">
-        <v>1.000319459644935</v>
+        <v>17.92860653099114</v>
       </c>
       <c r="P20">
-        <v>63.10756406468764</v>
+        <v>49.67288828906003</v>
       </c>
       <c r="Q20">
-        <v>0.6556786195020055</v>
+        <v>33.31482238240824</v>
       </c>
       <c r="R20">
-        <v>55.6159536844037</v>
+        <v>94.54460698302383</v>
       </c>
       <c r="S20">
-        <v>749.1688194349659</v>
+        <v>754.5744750720994</v>
       </c>
       <c r="T20">
-        <v>552.2412108806329</v>
+        <v>695.7531029477595</v>
       </c>
       <c r="U20">
-        <v>130.224496541335</v>
+        <v>147.8201847637754</v>
       </c>
       <c r="V20">
-        <v>174.061188554471</v>
+        <v>194.9477859829434</v>
       </c>
       <c r="W20">
-        <v>388.5305336497987</v>
+        <v>417.0561109711238</v>
       </c>
       <c r="X20">
-        <v>0.2899999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="Y20">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Z20">
-        <v>0.0990822626366521</v>
+        <v>0.07967708740756013</v>
       </c>
       <c r="AA20">
-        <v>0.1439488324944606</v>
+        <v>0.1159486544335605</v>
       </c>
       <c r="AB20">
-        <v>3851.840439419776</v>
+        <v>3856.704756863212</v>
       </c>
       <c r="AC20">
-        <v>403.4150488763442</v>
+        <v>458.0007593177195</v>
       </c>
       <c r="AD20">
-        <v>345150.7568003956</v>
+        <v>349819.9958955215</v>
       </c>
     </row>
     <row r="21" spans="1:30">
       <c r="A21">
-        <v>715</v>
+        <v>875</v>
       </c>
       <c r="B21">
         <v>0.25</v>
@@ -2200,13 +2200,13 @@
         <v>110</v>
       </c>
       <c r="E21">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F21">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G21">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="H21">
         <v>14</v>
@@ -2215,72 +2215,72 @@
         <v>43</v>
       </c>
       <c r="J21">
-        <v>574.5451699826417</v>
+        <v>692.000939935758</v>
       </c>
       <c r="K21">
-        <v>560.5270688470819</v>
+        <v>674.7320793970357</v>
       </c>
       <c r="L21">
-        <v>13.22610113555976</v>
+        <v>16.29074053872227</v>
       </c>
       <c r="M21">
-        <v>0.792</v>
+        <v>0.9781200000000001</v>
       </c>
       <c r="N21">
-        <v>1538.488480952086</v>
+        <v>1721.675919404358</v>
       </c>
       <c r="O21">
-        <v>1.011255009187839</v>
+        <v>16.89502627458642</v>
       </c>
       <c r="P21">
-        <v>63.68337127262874</v>
+        <v>49.82260556528607</v>
       </c>
       <c r="Q21">
-        <v>0.6651718997227727</v>
+        <v>30.87892563923934</v>
       </c>
       <c r="R21">
-        <v>56.14926742566361</v>
+        <v>93.39406385196992</v>
       </c>
       <c r="S21">
-        <v>745.9779261636103</v>
+        <v>744.1468230886685</v>
       </c>
       <c r="T21">
-        <v>542.8408563115511</v>
+        <v>658.0678065473638</v>
       </c>
       <c r="U21">
-        <v>130.224496541335</v>
+        <v>147.8201847637754</v>
       </c>
       <c r="V21">
-        <v>174.061188554471</v>
+        <v>194.9477859829434</v>
       </c>
       <c r="W21">
-        <v>387.4087430230333</v>
+        <v>415.3174668210967</v>
       </c>
       <c r="X21">
-        <v>0.3099999999999999</v>
+        <v>0.33</v>
       </c>
       <c r="Y21">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Z21">
-        <v>0.09997164075028023</v>
+        <v>0.08151063345750265</v>
       </c>
       <c r="AA21">
-        <v>0.1450325219235851</v>
+        <v>0.1176679389006915</v>
       </c>
       <c r="AB21">
-        <v>3853.887969121725</v>
+        <v>3826.430630896152</v>
       </c>
       <c r="AC21">
-        <v>406.7141567111863</v>
+        <v>463.5813413389527</v>
       </c>
       <c r="AD21">
-        <v>341648.0913848923</v>
+        <v>338434.8719386443</v>
       </c>
     </row>
     <row r="22" spans="1:30">
       <c r="A22">
-        <v>710</v>
+        <v>825</v>
       </c>
       <c r="B22">
         <v>0.25</v>
@@ -2292,13 +2292,13 @@
         <v>110</v>
       </c>
       <c r="E22">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F22">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G22">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H22">
         <v>14</v>
@@ -2307,72 +2307,72 @@
         <v>43</v>
       </c>
       <c r="J22">
-        <v>580.0082310788492</v>
+        <v>703.1417563109449</v>
       </c>
       <c r="K22">
-        <v>565.9901299432894</v>
+        <v>685.8728957722226</v>
       </c>
       <c r="L22">
-        <v>13.22610113555976</v>
+        <v>16.29074053872227</v>
       </c>
       <c r="M22">
-        <v>0.792</v>
+        <v>0.9781200000000001</v>
       </c>
       <c r="N22">
-        <v>1527.047749192009</v>
+        <v>1620.300979756439</v>
       </c>
       <c r="O22">
-        <v>1.021597079166536</v>
+        <v>14.46922243442456</v>
       </c>
       <c r="P22">
-        <v>64.22792903951571</v>
+        <v>50.18541483292631</v>
       </c>
       <c r="Q22">
-        <v>0.6740481178751487</v>
+        <v>25.25933760442976</v>
       </c>
       <c r="R22">
-        <v>56.64791583811933</v>
+        <v>90.21351492613368</v>
       </c>
       <c r="S22">
-        <v>742.7781784808974</v>
+        <v>742.2474001865119</v>
       </c>
       <c r="T22">
-        <v>533.5427399160712</v>
+        <v>569.5903501115454</v>
       </c>
       <c r="U22">
-        <v>130.224496541335</v>
+        <v>147.8201847637754</v>
       </c>
       <c r="V22">
-        <v>174.061188554471</v>
+        <v>194.9477859829434</v>
       </c>
       <c r="W22">
-        <v>386.3447616095157</v>
+        <v>423.7384332936588</v>
       </c>
       <c r="X22">
-        <v>0.3299999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="Y22">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Z22">
-        <v>0.1008127517207511</v>
+        <v>0.08643580243981604</v>
       </c>
       <c r="AA22">
-        <v>0.1460457716706315</v>
+        <v>0.1220986903404093</v>
       </c>
       <c r="AB22">
-        <v>3853.674076995433</v>
+        <v>3743.627244963842</v>
       </c>
       <c r="AC22">
-        <v>410.085665529532</v>
+        <v>476.9313636575826</v>
       </c>
       <c r="AD22">
-        <v>338160.8914961016</v>
+        <v>310685.6455153884</v>
       </c>
     </row>
     <row r="23" spans="1:30">
       <c r="A23">
-        <v>705</v>
+        <v>810</v>
       </c>
       <c r="B23">
         <v>0.25</v>
@@ -2384,13 +2384,13 @@
         <v>110</v>
       </c>
       <c r="E23">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F23">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G23">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H23">
         <v>14</v>
@@ -2399,72 +2399,72 @@
         <v>43</v>
       </c>
       <c r="J23">
-        <v>606.732365383923</v>
+        <v>713.2717428729073</v>
       </c>
       <c r="K23">
-        <v>591.3860801444247</v>
+        <v>696.0028823341851</v>
       </c>
       <c r="L23">
-        <v>14.47508523949832</v>
+        <v>16.29074053872227</v>
       </c>
       <c r="M23">
-        <v>0.8712000000000001</v>
+        <v>0.9781200000000001</v>
       </c>
       <c r="N23">
-        <v>1475.975845998803</v>
+        <v>1584.366977858914</v>
       </c>
       <c r="O23">
-        <v>1.027045870406381</v>
+        <v>13.79443366855744</v>
       </c>
       <c r="P23">
-        <v>64.51483307283928</v>
+        <v>50.33088611355613</v>
       </c>
       <c r="Q23">
-        <v>0.6562777307052486</v>
+        <v>23.82609153016855</v>
       </c>
       <c r="R23">
-        <v>55.6496105690423</v>
+        <v>89.57430945539933</v>
       </c>
       <c r="S23">
-        <v>765.8635209968521</v>
+        <v>733.9303324662418</v>
       </c>
       <c r="T23">
-        <v>460.1143366915808</v>
+        <v>544.6073907985653</v>
       </c>
       <c r="U23">
-        <v>142.7928452716496</v>
+        <v>147.8201847637754</v>
       </c>
       <c r="V23">
-        <v>186.8610578452162</v>
+        <v>194.9477859829434</v>
       </c>
       <c r="W23">
-        <v>412.2527855146271</v>
+        <v>421.9719315477135</v>
       </c>
       <c r="X23">
-        <v>0.23</v>
+        <v>0.33</v>
       </c>
       <c r="Y23">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Z23">
-        <v>0.1012558968645259</v>
+        <v>0.08806211556644118</v>
       </c>
       <c r="AA23">
-        <v>0.1440172230257339</v>
+        <v>0.1237268785875437</v>
       </c>
       <c r="AB23">
-        <v>3773.385659349054</v>
+        <v>3724.574971496545</v>
       </c>
       <c r="AC23">
-        <v>430.4832520462269</v>
+        <v>482.7876622840604</v>
       </c>
       <c r="AD23">
-        <v>293690.0021435622</v>
+        <v>302559.6615547585</v>
       </c>
     </row>
     <row r="24" spans="1:30">
       <c r="A24">
-        <v>695</v>
+        <v>910</v>
       </c>
       <c r="B24">
         <v>0.25</v>
@@ -2476,13 +2476,13 @@
         <v>110</v>
       </c>
       <c r="E24">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F24">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G24">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="H24">
         <v>14</v>
@@ -2491,72 +2491,72 @@
         <v>43</v>
       </c>
       <c r="J24">
-        <v>612.3135139454322</v>
+        <v>693.736916796558</v>
       </c>
       <c r="K24">
-        <v>596.9672287059338</v>
+        <v>675.8910119347807</v>
       </c>
       <c r="L24">
-        <v>14.47508523949832</v>
+        <v>16.8334648617774</v>
       </c>
       <c r="M24">
-        <v>0.8712000000000001</v>
+        <v>1.01244</v>
       </c>
       <c r="N24">
-        <v>1455.682199942507</v>
+        <v>1762.355412739186</v>
       </c>
       <c r="O24">
-        <v>1.129185796703219</v>
+        <v>18.74614509825295</v>
       </c>
       <c r="P24">
-        <v>65.73645343516455</v>
+        <v>49.61524636812703</v>
       </c>
       <c r="Q24">
-        <v>0.6703306700692101</v>
+        <v>34.60037256836067</v>
       </c>
       <c r="R24">
-        <v>56.43907695933152</v>
+        <v>93.90524461483528</v>
       </c>
       <c r="S24">
-        <v>759.184527866968</v>
+        <v>746.017325652319</v>
       </c>
       <c r="T24">
-        <v>444.3821490439489</v>
+        <v>690.8736391098001</v>
       </c>
       <c r="U24">
-        <v>142.7928452716496</v>
+        <v>152.8475242559013</v>
       </c>
       <c r="V24">
-        <v>186.8610578452162</v>
+        <v>200.06802812393</v>
       </c>
       <c r="W24">
-        <v>410.8583068568479</v>
+        <v>416.2368069546073</v>
       </c>
       <c r="X24">
-        <v>0.2499999999999999</v>
+        <v>0.33</v>
       </c>
       <c r="Y24">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Z24">
-        <v>0.1026186020679019</v>
+        <v>0.07840588324781071</v>
       </c>
       <c r="AA24">
-        <v>0.1456214126717467</v>
+        <v>0.1138301068810127</v>
       </c>
       <c r="AB24">
-        <v>3761.297536306649</v>
+        <v>3849.693741788959</v>
       </c>
       <c r="AC24">
-        <v>433.7643395168248</v>
+        <v>459.2445449078479</v>
       </c>
       <c r="AD24">
-        <v>287729.4490212618</v>
+        <v>341640.8105488023</v>
       </c>
     </row>
     <row r="25" spans="1:30">
       <c r="A25">
-        <v>690</v>
+        <v>875</v>
       </c>
       <c r="B25">
         <v>0.25</v>
@@ -2568,13 +2568,13 @@
         <v>110</v>
       </c>
       <c r="E25">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F25">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G25">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="H25">
         <v>14</v>
@@ -2583,72 +2583,72 @@
         <v>43</v>
       </c>
       <c r="J25">
-        <v>618.006748203829</v>
+        <v>695.5245495938703</v>
       </c>
       <c r="K25">
-        <v>602.6604629643307</v>
+        <v>677.6786447320931</v>
       </c>
       <c r="L25">
-        <v>14.47508523949832</v>
+        <v>16.8334648617774</v>
       </c>
       <c r="M25">
-        <v>0.8712000000000001</v>
+        <v>1.01244</v>
       </c>
       <c r="N25">
-        <v>1445.917163727941</v>
+        <v>1697.997185989115</v>
       </c>
       <c r="O25">
-        <v>1.143865658403742</v>
+        <v>16.93291000429</v>
       </c>
       <c r="P25">
-        <v>66.40727592141228</v>
+        <v>49.95206274715338</v>
       </c>
       <c r="Q25">
-        <v>0.6816095533510075</v>
+        <v>30.17082269490499</v>
       </c>
       <c r="R25">
-        <v>57.07270235543967</v>
+        <v>91.51640210963893</v>
       </c>
       <c r="S25">
-        <v>755.8307754745308</v>
+        <v>753.573394355412</v>
       </c>
       <c r="T25">
-        <v>436.645094867314</v>
+        <v>627.3809256404716</v>
       </c>
       <c r="U25">
-        <v>142.7928452716496</v>
+        <v>152.8475242559013</v>
       </c>
       <c r="V25">
-        <v>186.8610578452162</v>
+        <v>200.06802812393</v>
       </c>
       <c r="W25">
-        <v>409.5418803692592</v>
+        <v>426.7476496811258</v>
       </c>
       <c r="X25">
-        <v>0.2699999999999999</v>
+        <v>0.27</v>
       </c>
       <c r="Y25">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Z25">
-        <v>0.1036418575887587</v>
+        <v>0.08164641032135303</v>
       </c>
       <c r="AA25">
-        <v>0.1469089346136434</v>
+        <v>0.1165355104649845</v>
       </c>
       <c r="AB25">
-        <v>3767.254367800478</v>
+        <v>3789.60531642078</v>
       </c>
       <c r="AC25">
-        <v>437.1496483492664</v>
+        <v>467.6919249380101</v>
       </c>
       <c r="AD25">
-        <v>284768.5401308569</v>
+        <v>322653.0474722425</v>
       </c>
     </row>
     <row r="26" spans="1:30">
       <c r="A26">
-        <v>680</v>
+        <v>855</v>
       </c>
       <c r="B26">
         <v>0.25</v>
@@ -2660,13 +2660,13 @@
         <v>110</v>
       </c>
       <c r="E26">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F26">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G26">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="H26">
         <v>14</v>
@@ -2675,72 +2675,72 @@
         <v>43</v>
       </c>
       <c r="J26">
-        <v>623.8024317559546</v>
+        <v>705.4430818874835</v>
       </c>
       <c r="K26">
-        <v>608.4561465164562</v>
+        <v>687.5971770257062</v>
       </c>
       <c r="L26">
-        <v>14.47508523949832</v>
+        <v>16.8334648617774</v>
       </c>
       <c r="M26">
-        <v>0.8712000000000001</v>
+        <v>1.01244</v>
       </c>
       <c r="N26">
-        <v>1425.532597214498</v>
+        <v>1648.718634032437</v>
       </c>
       <c r="O26">
-        <v>1.161972262743511</v>
+        <v>15.94131680813992</v>
       </c>
       <c r="P26">
-        <v>67.23468952983035</v>
+        <v>50.1283441208104</v>
       </c>
       <c r="Q26">
-        <v>0.6944364438095789</v>
+        <v>27.96845585097708</v>
       </c>
       <c r="R26">
-        <v>57.79329173867806</v>
+        <v>90.52958783310252</v>
       </c>
       <c r="S26">
-        <v>749.0942798093192</v>
+        <v>742.9153147575522</v>
       </c>
       <c r="T26">
-        <v>421.4269138449898</v>
+        <v>592.8245824381993</v>
       </c>
       <c r="U26">
-        <v>142.7928452716496</v>
+        <v>152.8475242559013</v>
       </c>
       <c r="V26">
-        <v>186.8610578452162</v>
+        <v>200.06802812393</v>
       </c>
       <c r="W26">
-        <v>408.2971063720668</v>
+        <v>424.8281499102155</v>
       </c>
       <c r="X26">
-        <v>0.2899999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="Y26">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Z26">
-        <v>0.1049039732157731</v>
+        <v>0.08358943688672338</v>
       </c>
       <c r="AA26">
-        <v>0.1483731667099512</v>
+        <v>0.1184035795047232</v>
       </c>
       <c r="AB26">
-        <v>3749.660291642028</v>
+        <v>3762.344780910281</v>
       </c>
       <c r="AC26">
-        <v>440.6301902804123</v>
+        <v>473.2322144087343</v>
       </c>
       <c r="AD26">
-        <v>278885.4576915374</v>
+        <v>312012.9381253681</v>
       </c>
     </row>
     <row r="27" spans="1:30">
       <c r="A27">
-        <v>675</v>
+        <v>835</v>
       </c>
       <c r="B27">
         <v>0.25</v>
@@ -2752,13 +2752,13 @@
         <v>110</v>
       </c>
       <c r="E27">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F27">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G27">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="H27">
         <v>14</v>
@@ -2767,72 +2767,72 @@
         <v>43</v>
       </c>
       <c r="J27">
-        <v>629.6919305194701</v>
+        <v>715.5849288664187</v>
       </c>
       <c r="K27">
-        <v>614.3456452799718</v>
+        <v>697.7390240046414</v>
       </c>
       <c r="L27">
-        <v>14.47508523949832</v>
+        <v>16.8334648617774</v>
       </c>
       <c r="M27">
-        <v>0.8712000000000001</v>
+        <v>1.01244</v>
       </c>
       <c r="N27">
-        <v>1415.849941377943</v>
+        <v>1600.196311894349</v>
       </c>
       <c r="O27">
-        <v>1.175153548088448</v>
+        <v>14.9505794052938</v>
       </c>
       <c r="P27">
-        <v>67.83703189431709</v>
+        <v>50.16901313740519</v>
       </c>
       <c r="Q27">
-        <v>0.704421889514709</v>
+        <v>25.79334439399283</v>
       </c>
       <c r="R27">
-        <v>58.3542543652211</v>
+        <v>89.26790963730978</v>
       </c>
       <c r="S27">
-        <v>745.7113398173599</v>
+        <v>732.1588622643458</v>
       </c>
       <c r="T27">
-        <v>413.9449262139345</v>
+        <v>559.4974759786171</v>
       </c>
       <c r="U27">
-        <v>142.7928452716496</v>
+        <v>152.8475242559013</v>
       </c>
       <c r="V27">
-        <v>186.8610578452162</v>
+        <v>200.06802812393</v>
       </c>
       <c r="W27">
-        <v>407.1182444109205</v>
+        <v>423.0571052997233</v>
       </c>
       <c r="X27">
-        <v>0.3099999999999999</v>
+        <v>0.33</v>
       </c>
       <c r="Y27">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Z27">
-        <v>0.1058227709044949</v>
+        <v>0.0854691008110741</v>
       </c>
       <c r="AA27">
-        <v>0.1495130384617693</v>
+        <v>0.1201788414683993</v>
       </c>
       <c r="AB27">
-        <v>3750.684082851945</v>
+        <v>3729.427197420268</v>
       </c>
       <c r="AC27">
-        <v>444.1979155762318</v>
+        <v>478.9766267425503</v>
       </c>
       <c r="AD27">
-        <v>275963.284142623</v>
+        <v>301525.5858567397</v>
       </c>
     </row>
     <row r="28" spans="1:30">
       <c r="A28">
-        <v>670</v>
+        <v>880</v>
       </c>
       <c r="B28">
         <v>0.25</v>
@@ -2844,13 +2844,13 @@
         <v>110</v>
       </c>
       <c r="E28">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F28">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G28">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="H28">
         <v>14</v>
@@ -2859,72 +2859,72 @@
         <v>43</v>
       </c>
       <c r="J28">
-        <v>635.6674883081835</v>
+        <v>707.137643264286</v>
       </c>
       <c r="K28">
-        <v>620.3212030686852</v>
+        <v>688.712280286923</v>
       </c>
       <c r="L28">
-        <v>14.47508523949832</v>
+        <v>17.37860297736296</v>
       </c>
       <c r="M28">
-        <v>0.8712000000000001</v>
+        <v>1.04676</v>
       </c>
       <c r="N28">
-        <v>1406.172012438759</v>
+        <v>1662.377512872868</v>
       </c>
       <c r="O28">
-        <v>1.187609158961688</v>
+        <v>17.14675251578836</v>
       </c>
       <c r="P28">
-        <v>68.4062132683776</v>
+        <v>49.77447181194748</v>
       </c>
       <c r="Q28">
-        <v>0.7137820099703016</v>
+        <v>30.00015422562518</v>
       </c>
       <c r="R28">
-        <v>58.88008745375624</v>
+        <v>89.83063438413038</v>
       </c>
       <c r="S28">
-        <v>742.3184710145845</v>
+        <v>739.6672286233498</v>
       </c>
       <c r="T28">
-        <v>406.5470999793723</v>
+        <v>607.4713464836234</v>
       </c>
       <c r="U28">
-        <v>142.7928452716496</v>
+        <v>157.8748637480271</v>
       </c>
       <c r="V28">
-        <v>186.8610578452162</v>
+        <v>205.1885534798951</v>
       </c>
       <c r="W28">
-        <v>406.0001327189203</v>
+        <v>425.7254659876981</v>
       </c>
       <c r="X28">
-        <v>0.3299999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="Y28">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Z28">
-        <v>0.1066909856637139</v>
+        <v>0.08103392254598245</v>
       </c>
       <c r="AA28">
-        <v>0.1505815272619701</v>
+        <v>0.114921055356611</v>
       </c>
       <c r="AB28">
-        <v>3749.506798872346</v>
+        <v>3758.459916021971</v>
       </c>
       <c r="AC28">
-        <v>447.8455960806493</v>
+        <v>468.8119158626282</v>
       </c>
       <c r="AD28">
-        <v>273054.0223742053</v>
+        <v>310638.7567245801</v>
       </c>
     </row>
     <row r="29" spans="1:30">
       <c r="A29">
-        <v>705</v>
+        <v>865</v>
       </c>
       <c r="B29">
         <v>0.25</v>
@@ -2936,13 +2936,13 @@
         <v>110</v>
       </c>
       <c r="E29">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F29">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G29">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="H29">
         <v>14</v>
@@ -2951,72 +2951,72 @@
         <v>43</v>
       </c>
       <c r="J29">
-        <v>590.8927518920082</v>
+        <v>717.2821730151363</v>
       </c>
       <c r="K29">
-        <v>576.0436633944685</v>
+        <v>698.8568100377734</v>
       </c>
       <c r="L29">
-        <v>14.01308849753969</v>
+        <v>17.37860297736296</v>
       </c>
       <c r="M29">
-        <v>0.8360000000000001</v>
+        <v>1.04676</v>
       </c>
       <c r="N29">
-        <v>1488.761389796951</v>
+        <v>1627.002761032248</v>
       </c>
       <c r="O29">
-        <v>1.026306280904987</v>
+        <v>16.42420447594456</v>
       </c>
       <c r="P29">
-        <v>64.475890268534</v>
+        <v>50.01052782994676</v>
       </c>
       <c r="Q29">
-        <v>0.6626030178844562</v>
+        <v>28.44828478886734</v>
       </c>
       <c r="R29">
-        <v>56.00495271544889</v>
+        <v>89.36382947183361</v>
       </c>
       <c r="S29">
-        <v>756.309602990945</v>
+        <v>731.8457795730407</v>
       </c>
       <c r="T29">
-        <v>482.1318134558567</v>
+        <v>582.4703230796657</v>
       </c>
       <c r="U29">
-        <v>130.224496541335</v>
+        <v>157.8748637480271</v>
       </c>
       <c r="V29">
-        <v>176.0399613263758</v>
+        <v>205.1885534798951</v>
       </c>
       <c r="W29">
-        <v>402.9904860529978</v>
+        <v>423.9506806015457</v>
       </c>
       <c r="X29">
-        <v>0.2499999999999999</v>
+        <v>0.33</v>
       </c>
       <c r="Y29">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Z29">
-        <v>0.1011957467355335</v>
+        <v>0.08257623403856619</v>
       </c>
       <c r="AA29">
-        <v>0.144739275540026</v>
+        <v>0.1164485605616</v>
       </c>
       <c r="AB29">
-        <v>3792.304109139185</v>
+        <v>3743.500341577449</v>
       </c>
       <c r="AC29">
-        <v>425.7419318198214</v>
+        <v>474.4324314653734</v>
       </c>
       <c r="AD29">
-        <v>307743.7107165043</v>
+        <v>303019.2432206353</v>
       </c>
     </row>
     <row r="30" spans="1:30">
       <c r="A30">
-        <v>690</v>
+        <v>805</v>
       </c>
       <c r="B30">
         <v>0.25</v>
@@ -3028,13 +3028,13 @@
         <v>110</v>
       </c>
       <c r="E30">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F30">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G30">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="H30">
         <v>14</v>
@@ -3043,72 +3043,72 @@
         <v>43</v>
       </c>
       <c r="J30">
-        <v>601.9896776383727</v>
+        <v>739.9075416733701</v>
       </c>
       <c r="K30">
-        <v>587.140589140833</v>
+        <v>721.4821786960073</v>
       </c>
       <c r="L30">
-        <v>14.01308849753969</v>
+        <v>17.37860297736296</v>
       </c>
       <c r="M30">
-        <v>0.8360000000000001</v>
+        <v>1.04676</v>
       </c>
       <c r="N30">
-        <v>1457.454545825603</v>
+        <v>1515.168521388387</v>
       </c>
       <c r="O30">
-        <v>1.141391047146117</v>
+        <v>13.60677382110996</v>
       </c>
       <c r="P30">
-        <v>66.29419414242811</v>
+        <v>50.52104850448286</v>
       </c>
       <c r="Q30">
-        <v>0.6862094072184708</v>
+        <v>22.53087883962791</v>
       </c>
       <c r="R30">
-        <v>57.33111306472635</v>
+        <v>86.59322259858152</v>
       </c>
       <c r="S30">
-        <v>746.4048545158839</v>
+        <v>724.6349837762906</v>
       </c>
       <c r="T30">
-        <v>457.4609437507099</v>
+        <v>488.9881019966319</v>
       </c>
       <c r="U30">
-        <v>130.224496541335</v>
+        <v>157.8748637480271</v>
       </c>
       <c r="V30">
-        <v>176.0399613263758</v>
+        <v>205.1885534798951</v>
       </c>
       <c r="W30">
-        <v>400.4783318358002</v>
+        <v>430.8973755526073</v>
       </c>
       <c r="X30">
-        <v>0.2899999999999999</v>
+        <v>0.33</v>
       </c>
       <c r="Y30">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Z30">
-        <v>0.1034693655256183</v>
+        <v>0.08877603075899299</v>
       </c>
       <c r="AA30">
-        <v>0.1474340231916444</v>
+        <v>0.1224800765839136</v>
       </c>
       <c r="AB30">
-        <v>3780.719459247493</v>
+        <v>3664.282721412098</v>
       </c>
       <c r="AC30">
-        <v>432.6171487352748</v>
+        <v>494.9026565891756</v>
       </c>
       <c r="AD30">
-        <v>298344.093750463</v>
+        <v>273347.3862092973</v>
       </c>
     </row>
     <row r="31" spans="1:30">
       <c r="A31">
-        <v>685</v>
+        <v>755</v>
       </c>
       <c r="B31">
         <v>0.25</v>
@@ -3120,13 +3120,13 @@
         <v>110</v>
       </c>
       <c r="E31">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F31">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G31">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H31">
         <v>14</v>
@@ -3135,72 +3135,72 @@
         <v>43</v>
       </c>
       <c r="J31">
-        <v>607.6778709497306</v>
+        <v>762.7238011341218</v>
       </c>
       <c r="K31">
-        <v>592.8287824521909</v>
+        <v>744.2984381567589</v>
       </c>
       <c r="L31">
-        <v>14.01308849753969</v>
+        <v>17.37860297736296</v>
       </c>
       <c r="M31">
-        <v>0.8360000000000001</v>
+        <v>1.04676</v>
       </c>
       <c r="N31">
-        <v>1447.258749655401</v>
+        <v>1432.949359393121</v>
       </c>
       <c r="O31">
-        <v>1.154480468549518</v>
+        <v>11.47075031022362</v>
       </c>
       <c r="P31">
-        <v>66.89233862011494</v>
+        <v>50.79923908561535</v>
       </c>
       <c r="Q31">
-        <v>0.6960097072108379</v>
+        <v>18.413323747971</v>
       </c>
       <c r="R31">
-        <v>57.88167457063926</v>
+        <v>84.64470147244555</v>
       </c>
       <c r="S31">
-        <v>743.0843742492402</v>
+        <v>720.6276711017389</v>
       </c>
       <c r="T31">
-        <v>449.4185179915187</v>
+        <v>418.7837197746571</v>
       </c>
       <c r="U31">
-        <v>130.224496541335</v>
+        <v>157.8748637480271</v>
       </c>
       <c r="V31">
-        <v>176.0399613263758</v>
+        <v>205.1885534798951</v>
       </c>
       <c r="W31">
-        <v>399.3220447490278</v>
+        <v>437.8014708904558</v>
       </c>
       <c r="X31">
-        <v>0.3099999999999999</v>
+        <v>0.33</v>
       </c>
       <c r="Y31">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Z31">
-        <v>0.1043817598648222</v>
+        <v>0.09444573750876004</v>
       </c>
       <c r="AA31">
-        <v>0.1485527599461693</v>
+        <v>0.1284043402286035</v>
       </c>
       <c r="AB31">
-        <v>3781.803343950486</v>
+        <v>3602.917356482867</v>
       </c>
       <c r="AC31">
-        <v>436.1844437789951</v>
+        <v>515.5769886249738</v>
       </c>
       <c r="AD31">
-        <v>295238.4424761802</v>
+        <v>249606.1905941665</v>
       </c>
     </row>
     <row r="32" spans="1:30">
       <c r="A32">
-        <v>680</v>
+        <v>890</v>
       </c>
       <c r="B32">
         <v>0.25</v>
@@ -3212,13 +3212,13 @@
         <v>110</v>
       </c>
       <c r="E32">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F32">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G32">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="H32">
         <v>14</v>
@@ -3227,72 +3227,72 @@
         <v>43</v>
       </c>
       <c r="J32">
-        <v>613.4489734809999</v>
+        <v>694.6751081372322</v>
       </c>
       <c r="K32">
-        <v>598.5998849834602</v>
+        <v>676.4694440179762</v>
       </c>
       <c r="L32">
-        <v>14.01308849753969</v>
+        <v>17.17738411925584</v>
       </c>
       <c r="M32">
-        <v>0.8360000000000001</v>
+        <v>1.02828</v>
       </c>
       <c r="N32">
-        <v>1437.074057020144</v>
+        <v>1695.330992202313</v>
       </c>
       <c r="O32">
-        <v>1.166851599541903</v>
+        <v>17.67221430666369</v>
       </c>
       <c r="P32">
-        <v>67.45765953520996</v>
+        <v>49.72824469494569</v>
       </c>
       <c r="Q32">
-        <v>0.7051851960191056</v>
+        <v>31.4923868806414</v>
       </c>
       <c r="R32">
-        <v>58.39713541772572</v>
+        <v>91.21778426343201</v>
       </c>
       <c r="S32">
-        <v>739.7542861157369</v>
+        <v>741.5478128025665</v>
       </c>
       <c r="T32">
-        <v>441.4659255707825</v>
+        <v>635.1513501063981</v>
       </c>
       <c r="U32">
-        <v>130.224496541335</v>
+        <v>147.8201847637754</v>
       </c>
       <c r="V32">
-        <v>176.0399613263758</v>
+        <v>196.925844803649</v>
       </c>
       <c r="W32">
-        <v>398.2253445808657</v>
+        <v>421.5833201027729</v>
       </c>
       <c r="X32">
-        <v>0.3299999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="Y32">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Z32">
-        <v>0.1052440859783407</v>
+        <v>0.08014692258339887</v>
       </c>
       <c r="AA32">
-        <v>0.149600172431352</v>
+        <v>0.114567430434035</v>
       </c>
       <c r="AB32">
-        <v>3780.668962098918</v>
+        <v>3789.473064122518</v>
       </c>
       <c r="AC32">
-        <v>439.8286611123949</v>
+        <v>468.1814332351562</v>
       </c>
       <c r="AD32">
-        <v>292146.5683924296</v>
+        <v>321143.9410650327</v>
       </c>
     </row>
     <row r="33" spans="1:30">
       <c r="A33">
-        <v>670</v>
+        <v>870</v>
       </c>
       <c r="B33">
         <v>0.25</v>
@@ -3304,13 +3304,13 @@
         <v>110</v>
       </c>
       <c r="E33">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F33">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G33">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="H33">
         <v>14</v>
@@ -3319,72 +3319,72 @@
         <v>43</v>
       </c>
       <c r="J33">
-        <v>645.2101489152293</v>
+        <v>704.6431294274564</v>
       </c>
       <c r="K33">
-        <v>628.9676509538789</v>
+        <v>686.4374653082007</v>
       </c>
       <c r="L33">
-        <v>15.32289796135049</v>
+        <v>17.17738411925584</v>
       </c>
       <c r="M33">
-        <v>0.9196000000000001</v>
+        <v>1.02828</v>
       </c>
       <c r="N33">
-        <v>1390.308753846573</v>
+        <v>1646.134330289287</v>
       </c>
       <c r="O33">
-        <v>1.184329110157506</v>
+        <v>16.64082697080131</v>
       </c>
       <c r="P33">
-        <v>68.25632558287187</v>
+        <v>49.85446372026892</v>
       </c>
       <c r="Q33">
-        <v>0.7014509057638786</v>
+        <v>29.1613966570772</v>
       </c>
       <c r="R33">
-        <v>58.18735036338708</v>
+        <v>90.06426393356296</v>
       </c>
       <c r="S33">
-        <v>758.8288752372004</v>
+        <v>731.2012379034578</v>
       </c>
       <c r="T33">
-        <v>375.0316730934563</v>
+        <v>600.7571702533023</v>
       </c>
       <c r="U33">
-        <v>142.7928452716496</v>
+        <v>147.8201847637754</v>
       </c>
       <c r="V33">
-        <v>188.8388010428622</v>
+        <v>196.925844803649</v>
       </c>
       <c r="W33">
-        <v>422.6134287716515</v>
+        <v>419.8258026993259</v>
       </c>
       <c r="X33">
-        <v>0.2499999999999999</v>
+        <v>0.33</v>
       </c>
       <c r="Y33">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Z33">
-        <v>0.10646235080897</v>
+        <v>0.08197519371857964</v>
       </c>
       <c r="AA33">
-        <v>0.1491738908110097</v>
+        <v>0.1162644373515412</v>
       </c>
       <c r="AB33">
-        <v>3714.456400996953</v>
+        <v>3759.185803849873</v>
       </c>
       <c r="AC33">
-        <v>463.0988914916268</v>
+        <v>473.8880605478279</v>
       </c>
       <c r="AD33">
-        <v>251886.944615008</v>
+        <v>310736.4673723978</v>
       </c>
     </row>
     <row r="34" spans="1:30">
       <c r="A34">
-        <v>660</v>
+        <v>760</v>
       </c>
       <c r="B34">
         <v>0.25</v>
@@ -3396,13 +3396,13 @@
         <v>110</v>
       </c>
       <c r="E34">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F34">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G34">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H34">
         <v>14</v>
@@ -3411,72 +3411,72 @@
         <v>43</v>
       </c>
       <c r="J34">
-        <v>657.2987960810719</v>
+        <v>749.246202063109</v>
       </c>
       <c r="K34">
-        <v>641.0562981197215</v>
+        <v>731.0405379438531</v>
       </c>
       <c r="L34">
-        <v>15.32289796135049</v>
+        <v>17.17738411925584</v>
       </c>
       <c r="M34">
-        <v>0.9196000000000001</v>
+        <v>1.02828</v>
       </c>
       <c r="N34">
-        <v>1372.676039380537</v>
+        <v>1447.880428645215</v>
       </c>
       <c r="O34">
-        <v>1.213793936080178</v>
+        <v>11.68172233136575</v>
       </c>
       <c r="P34">
-        <v>69.60277340271746</v>
+        <v>50.80898331140946</v>
       </c>
       <c r="Q34">
-        <v>0.7244036531256403</v>
+        <v>18.93359150255349</v>
       </c>
       <c r="R34">
-        <v>59.4767903970771</v>
+        <v>85.3652122305034</v>
       </c>
       <c r="S34">
-        <v>751.8577799431274</v>
+        <v>720.3195668845119</v>
       </c>
       <c r="T34">
-        <v>361.6894870976822</v>
+        <v>432.5542532840084</v>
       </c>
       <c r="U34">
-        <v>142.7928452716496</v>
+        <v>147.8201847637754</v>
       </c>
       <c r="V34">
-        <v>188.8388010428622</v>
+        <v>196.925844803649</v>
       </c>
       <c r="W34">
-        <v>419.9789494375825</v>
+        <v>433.5418300985764</v>
       </c>
       <c r="X34">
-        <v>0.2899999999999999</v>
+        <v>0.33</v>
       </c>
       <c r="Y34">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Z34">
-        <v>0.1085161879916042</v>
+        <v>0.09389287920954412</v>
       </c>
       <c r="AA34">
-        <v>0.1517940230631782</v>
+        <v>0.1281411730105513</v>
       </c>
       <c r="AB34">
-        <v>3723.284754505936</v>
+        <v>3619.344584101398</v>
       </c>
       <c r="AC34">
-        <v>470.4963140022101</v>
+        <v>514.2358710803035</v>
       </c>
       <c r="AD34">
-        <v>246606.4684756924</v>
+        <v>256117.6499707944</v>
       </c>
     </row>
     <row r="35" spans="1:30">
       <c r="A35">
-        <v>650</v>
+        <v>905</v>
       </c>
       <c r="B35">
         <v>0.25</v>
@@ -3488,13 +3488,13 @@
         <v>110</v>
       </c>
       <c r="E35">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F35">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G35">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="H35">
         <v>14</v>
@@ -3503,72 +3503,72 @@
         <v>43</v>
       </c>
       <c r="J35">
-        <v>663.4962764021648</v>
+        <v>704.9558186485716</v>
       </c>
       <c r="K35">
-        <v>647.2537784408144</v>
+        <v>686.1470208525784</v>
       </c>
       <c r="L35">
-        <v>15.32289796135049</v>
+        <v>17.74443779599327</v>
       </c>
       <c r="M35">
-        <v>0.9196000000000001</v>
+        <v>1.06436</v>
       </c>
       <c r="N35">
-        <v>1354.199365405381</v>
+        <v>1683.575170256837</v>
       </c>
       <c r="O35">
-        <v>1.231694594495104</v>
+        <v>18.48012030408966</v>
       </c>
       <c r="P35">
-        <v>70.42077594445426</v>
+        <v>49.66255177672966</v>
       </c>
       <c r="Q35">
-        <v>0.7374955500784873</v>
+        <v>32.66619135089759</v>
       </c>
       <c r="R35">
-        <v>60.21226732199061</v>
+        <v>90.48410923781935</v>
       </c>
       <c r="S35">
-        <v>744.8448051735078</v>
+        <v>732.4484417824118</v>
       </c>
       <c r="T35">
-        <v>348.6485633530246</v>
+        <v>631.2563991073968</v>
       </c>
       <c r="U35">
-        <v>142.7928452716496</v>
+        <v>152.8475242559013</v>
       </c>
       <c r="V35">
-        <v>188.8388010428622</v>
+        <v>202.0457178782745</v>
       </c>
       <c r="W35">
-        <v>418.7663588993508</v>
+        <v>420.3062374945572</v>
       </c>
       <c r="X35">
-        <v>0.3099999999999999</v>
+        <v>0.33</v>
       </c>
       <c r="Y35">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Z35">
-        <v>0.1097639482173966</v>
+        <v>0.07885392591131855</v>
       </c>
       <c r="AA35">
-        <v>0.1532885065299099</v>
+        <v>0.1124043300130459</v>
       </c>
       <c r="AB35">
-        <v>3702.973420186751</v>
+        <v>3780.587252666784</v>
       </c>
       <c r="AC35">
-        <v>474.3376490750319</v>
+        <v>468.2380531719135</v>
       </c>
       <c r="AD35">
-        <v>241372.0823213247</v>
+        <v>313884.3973462194</v>
       </c>
     </row>
     <row r="36" spans="1:30">
       <c r="A36">
-        <v>645</v>
+        <v>835</v>
       </c>
       <c r="B36">
         <v>0.25</v>
@@ -3580,13 +3580,13 @@
         <v>110</v>
       </c>
       <c r="E36">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F36">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G36">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="H36">
         <v>14</v>
@@ -3595,72 +3595,72 @@
         <v>43</v>
       </c>
       <c r="J36">
-        <v>669.7846310549714</v>
+        <v>727.7320639381786</v>
       </c>
       <c r="K36">
-        <v>653.542133093621</v>
+        <v>708.9232661421854</v>
       </c>
       <c r="L36">
-        <v>15.32289796135049</v>
+        <v>17.74443779599327</v>
       </c>
       <c r="M36">
-        <v>0.9196000000000001</v>
+        <v>1.06436</v>
       </c>
       <c r="N36">
-        <v>1346.148541277626</v>
+        <v>1546.041140328023</v>
       </c>
       <c r="O36">
-        <v>1.244553913135966</v>
+        <v>14.98120091000352</v>
       </c>
       <c r="P36">
-        <v>71.00840546563751</v>
+        <v>50.28797254649461</v>
       </c>
       <c r="Q36">
-        <v>0.7720405099656299</v>
+        <v>25.0101812485289</v>
       </c>
       <c r="R36">
-        <v>61.46077826564243</v>
+        <v>86.90703976265601</v>
       </c>
       <c r="S36">
-        <v>741.3223346815535</v>
+        <v>721.7532135522831</v>
       </c>
       <c r="T36">
-        <v>342.2401146168444</v>
+        <v>518.7424052306727</v>
       </c>
       <c r="U36">
-        <v>142.7928452716496</v>
+        <v>152.8475242559013</v>
       </c>
       <c r="V36">
-        <v>188.8388010428622</v>
+        <v>202.0457178782745</v>
       </c>
       <c r="W36">
-        <v>417.616256764333</v>
+        <v>427.3528711267792</v>
       </c>
       <c r="X36">
-        <v>0.3299999999999999</v>
+        <v>0.33</v>
       </c>
       <c r="Y36">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Z36">
-        <v>0.1106603033099825</v>
+        <v>0.08559899351265456</v>
       </c>
       <c r="AA36">
-        <v>0.1544174732853875</v>
+        <v>0.1186926277311888</v>
       </c>
       <c r="AB36">
-        <v>3701.551546622243</v>
+        <v>3683.306550349545</v>
       </c>
       <c r="AC36">
-        <v>478.2635800258556</v>
+        <v>488.8281499378011</v>
       </c>
       <c r="AD36">
-        <v>238772.1729884961</v>
+        <v>279561.7752740152</v>
       </c>
     </row>
     <row r="37" spans="1:30">
       <c r="A37">
-        <v>660</v>
+        <v>795</v>
       </c>
       <c r="B37">
         <v>0.25</v>
@@ -3672,13 +3672,13 @@
         <v>110</v>
       </c>
       <c r="E37">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F37">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="G37">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="H37">
         <v>14</v>
@@ -3687,72 +3687,72 @@
         <v>43</v>
       </c>
       <c r="J37">
-        <v>642.4539843512256</v>
+        <v>740.0804853405429</v>
       </c>
       <c r="K37">
-        <v>626.7642413041642</v>
+        <v>721.2716875445496</v>
       </c>
       <c r="L37">
-        <v>14.80974304706135</v>
+        <v>17.74443779599327</v>
       </c>
       <c r="M37">
-        <v>0.88</v>
+        <v>1.06436</v>
       </c>
       <c r="N37">
-        <v>1380.668706945201</v>
+        <v>1484.115293658112</v>
       </c>
       <c r="O37">
-        <v>1.210752857995515</v>
+        <v>13.16604779596367</v>
       </c>
       <c r="P37">
-        <v>69.46380591084016</v>
+        <v>50.59714050107677</v>
       </c>
       <c r="Q37">
-        <v>0.7270834187238</v>
+        <v>21.39008075390963</v>
       </c>
       <c r="R37">
-        <v>59.62733433801417</v>
+        <v>85.27365549593415</v>
       </c>
       <c r="S37">
-        <v>742.0285039666093</v>
+        <v>724.8351408027929</v>
       </c>
       <c r="T37">
-        <v>379.500215502291</v>
+        <v>460.578764706814</v>
       </c>
       <c r="U37">
-        <v>130.224496541335</v>
+        <v>152.8475242559013</v>
       </c>
       <c r="V37">
-        <v>178.0192166649108</v>
+        <v>202.0457178782745</v>
       </c>
       <c r="W37">
-        <v>411.4653577309257</v>
+        <v>436.173655395659</v>
       </c>
       <c r="X37">
-        <v>0.3099999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="Y37">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Z37">
-        <v>0.1083042105218589</v>
+        <v>0.08988150528209</v>
       </c>
       <c r="AA37">
-        <v>0.1520999271957566</v>
+        <v>0.1229996165292333</v>
       </c>
       <c r="AB37">
-        <v>3730.788134218689</v>
+        <v>3634.113870074987</v>
       </c>
       <c r="AC37">
-        <v>467.2338094706931</v>
+        <v>503.4662885336226</v>
       </c>
       <c r="AD37">
-        <v>258750.1469333803</v>
+        <v>260704.9611548004</v>
       </c>
     </row>
     <row r="38" spans="1:30">
       <c r="A38">
-        <v>655</v>
+        <v>780</v>
       </c>
       <c r="B38">
         <v>0.25</v>
@@ -3764,13 +3764,13 @@
         <v>110</v>
       </c>
       <c r="E38">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="G38">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="H38">
         <v>14</v>
@@ -3779,72 +3779,72 @@
         <v>43</v>
       </c>
       <c r="J38">
-        <v>648.5489733344363</v>
+        <v>750.7045916299238</v>
       </c>
       <c r="K38">
-        <v>632.8592302873749</v>
+        <v>731.8957938339306</v>
       </c>
       <c r="L38">
-        <v>14.80974304706135</v>
+        <v>17.74443779599327</v>
       </c>
       <c r="M38">
-        <v>0.88</v>
+        <v>1.06436</v>
       </c>
       <c r="N38">
-        <v>1371.453586946665</v>
+        <v>1452.541467247479</v>
       </c>
       <c r="O38">
-        <v>1.22347834176516</v>
+        <v>12.51536843152753</v>
       </c>
       <c r="P38">
-        <v>70.04531960866706</v>
+        <v>50.68269343484127</v>
       </c>
       <c r="Q38">
-        <v>0.736753204754242</v>
+        <v>20.14625506671509</v>
       </c>
       <c r="R38">
-        <v>60.17056382720553</v>
+        <v>84.70321727431988</v>
       </c>
       <c r="S38">
-        <v>738.5741410132161</v>
+        <v>716.3683161942912</v>
       </c>
       <c r="T38">
-        <v>372.5960030817395</v>
+        <v>439.8774068107337</v>
       </c>
       <c r="U38">
-        <v>130.224496541335</v>
+        <v>152.8475242559013</v>
       </c>
       <c r="V38">
-        <v>178.0192166649108</v>
+        <v>202.0457178782745</v>
       </c>
       <c r="W38">
-        <v>410.3353071039938</v>
+        <v>434.3553130805597</v>
       </c>
       <c r="X38">
-        <v>0.3299999999999999</v>
+        <v>0.33</v>
       </c>
       <c r="Y38">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Z38">
-        <v>0.1091912366933929</v>
+        <v>0.09155470644918433</v>
       </c>
       <c r="AA38">
-        <v>0.1532037653485757</v>
+        <v>0.1247443565751459</v>
       </c>
       <c r="AB38">
-        <v>3729.395001014832</v>
+        <v>3616.122673562084</v>
       </c>
       <c r="AC38">
-        <v>471.1658981599606</v>
+        <v>509.6282391378261</v>
       </c>
       <c r="AD38">
-        <v>255981.98685005</v>
+        <v>253775.4270061925</v>
       </c>
     </row>
     <row r="39" spans="1:30">
       <c r="A39">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="B39">
         <v>0.25</v>
@@ -3856,13 +3856,13 @@
         <v>110</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F39">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G39">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H39">
         <v>14</v>
@@ -3871,72 +3871,72 @@
         <v>43</v>
       </c>
       <c r="J39">
-        <v>692.3464911493161</v>
+        <v>762.9056465395621</v>
       </c>
       <c r="K39">
-        <v>675.1981130717218</v>
+        <v>744.0968487435689</v>
       </c>
       <c r="L39">
-        <v>16.18037807759427</v>
+        <v>17.74443779599327</v>
       </c>
       <c r="M39">
-        <v>0.9680000000000001</v>
+        <v>1.06436</v>
       </c>
       <c r="N39">
-        <v>1345.926251685114</v>
+        <v>1416.121697289371</v>
       </c>
       <c r="O39">
-        <v>1.240331771829239</v>
+        <v>11.2945804920766</v>
       </c>
       <c r="P39">
-        <v>70.81546718144601</v>
+        <v>50.95797070149774</v>
       </c>
       <c r="Q39">
-        <v>0.7674671148053002</v>
+        <v>17.92762156723987</v>
       </c>
       <c r="R39">
-        <v>61.21991437097324</v>
+        <v>84.02175922146562</v>
       </c>
       <c r="S39">
-        <v>760.6655604604622</v>
+        <v>723.4694744710279</v>
       </c>
       <c r="T39">
-        <v>323.1137473177683</v>
+        <v>400.247246428561</v>
       </c>
       <c r="U39">
-        <v>142.7928452716496</v>
+        <v>152.8475242559013</v>
       </c>
       <c r="V39">
-        <v>190.8170156139617</v>
+        <v>202.0457178782745</v>
       </c>
       <c r="W39">
-        <v>431.8709330448149</v>
+        <v>443.1622904432676</v>
       </c>
       <c r="X39">
-        <v>0.2899999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="Y39">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Z39">
-        <v>0.1103660001693887</v>
+        <v>0.09520679047003495</v>
       </c>
       <c r="AA39">
-        <v>0.153960710095058</v>
+        <v>0.128738252752609</v>
       </c>
       <c r="AB39">
-        <v>3719.211767020749</v>
+        <v>3588.364231724389</v>
       </c>
       <c r="AC39">
-        <v>501.8549196125178</v>
+        <v>524.1722004499446</v>
       </c>
       <c r="AD39">
-        <v>223694.132758455</v>
+        <v>240148.3478571366</v>
       </c>
     </row>
     <row r="40" spans="1:30">
       <c r="A40">
-        <v>645</v>
+        <v>945</v>
       </c>
       <c r="B40">
         <v>0.25</v>
@@ -3948,13 +3948,13 @@
         <v>110</v>
       </c>
       <c r="E40">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F40">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G40">
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
       <c r="H40">
         <v>14</v>
@@ -3963,72 +3963,72 @@
         <v>43</v>
       </c>
       <c r="J40">
-        <v>698.8668145407266</v>
+        <v>704.6490452453914</v>
       </c>
       <c r="K40">
-        <v>681.7184364631323</v>
+        <v>685.2347002715218</v>
       </c>
       <c r="L40">
-        <v>16.18037807759427</v>
+        <v>18.31390497386966</v>
       </c>
       <c r="M40">
-        <v>0.9680000000000001</v>
+        <v>1.10044</v>
       </c>
       <c r="N40">
-        <v>1337.385974186558</v>
+        <v>1732.099758170732</v>
       </c>
       <c r="O40">
-        <v>1.249712785674004</v>
+        <v>20.70098689843936</v>
       </c>
       <c r="P40">
-        <v>71.24414935565514</v>
+        <v>49.36429918826538</v>
       </c>
       <c r="Q40">
-        <v>0.777368715812271</v>
+        <v>37.08568762181218</v>
       </c>
       <c r="R40">
-        <v>61.74139526173175</v>
+        <v>91.13520052424565</v>
       </c>
       <c r="S40">
-        <v>757.0664885335731</v>
+        <v>734.6570903504214</v>
       </c>
       <c r="T40">
-        <v>317.2065457092654</v>
+        <v>670.3965235978344</v>
       </c>
       <c r="U40">
-        <v>142.7928452716496</v>
+        <v>157.8748637480271</v>
       </c>
       <c r="V40">
-        <v>190.8170156139617</v>
+        <v>207.1658899358179</v>
       </c>
       <c r="W40">
-        <v>430.6240071980582</v>
+        <v>420.5946298047944</v>
       </c>
       <c r="X40">
-        <v>0.3099999999999999</v>
+        <v>0.33</v>
       </c>
       <c r="Y40">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Z40">
-        <v>0.1110199010305629</v>
+        <v>0.07547037523697982</v>
       </c>
       <c r="AA40">
-        <v>0.1549496224253426</v>
+        <v>0.1084080756304598</v>
       </c>
       <c r="AB40">
-        <v>3714.307729132716</v>
+        <v>3807.334979371999</v>
       </c>
       <c r="AC40">
-        <v>505.9841076732829</v>
+        <v>461.8515033296378</v>
       </c>
       <c r="AD40">
-        <v>221306.8923553014</v>
+        <v>319236.4398084925</v>
       </c>
     </row>
     <row r="41" spans="1:30">
       <c r="A41">
-        <v>640</v>
+        <v>900</v>
       </c>
       <c r="B41">
         <v>0.25</v>
@@ -4040,13 +4040,13 @@
         <v>110</v>
       </c>
       <c r="E41">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F41">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G41">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="H41">
         <v>14</v>
@@ -4055,67 +4055,987 @@
         <v>43</v>
       </c>
       <c r="J41">
-        <v>705.4830486467047</v>
+        <v>707.6964603121638</v>
       </c>
       <c r="K41">
-        <v>688.3346705691105</v>
+        <v>688.2821153382943</v>
       </c>
       <c r="L41">
-        <v>16.18037807759427</v>
+        <v>18.31390497386966</v>
       </c>
       <c r="M41">
-        <v>0.9680000000000001</v>
+        <v>1.10044</v>
       </c>
       <c r="N41">
-        <v>1328.820081725451</v>
+        <v>1649.404563485216</v>
       </c>
       <c r="O41">
-        <v>1.258235819217132</v>
+        <v>18.20280238189431</v>
       </c>
       <c r="P41">
-        <v>71.63362458835235</v>
+        <v>49.666987213204</v>
       </c>
       <c r="Q41">
-        <v>0.7864807887834089</v>
+        <v>31.18428035994384</v>
       </c>
       <c r="R41">
-        <v>62.22129461601801</v>
+        <v>88.05599827525626</v>
       </c>
       <c r="S41">
-        <v>753.4563802141945</v>
+        <v>738.7342819807571</v>
       </c>
       <c r="T41">
-        <v>311.3670905433199</v>
+        <v>595.0022405265859</v>
       </c>
       <c r="U41">
-        <v>142.7928452716496</v>
+        <v>157.8748637480271</v>
       </c>
       <c r="V41">
-        <v>190.8170156139617</v>
+        <v>207.1658899358179</v>
       </c>
       <c r="W41">
-        <v>429.441339155262</v>
+        <v>431.5454828953908</v>
       </c>
       <c r="X41">
-        <v>0.3299999999999999</v>
+        <v>0.27</v>
       </c>
       <c r="Y41">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Z41">
-        <v>0.1116139966225632</v>
+        <v>0.07926265013852259</v>
       </c>
       <c r="AA41">
-        <v>0.1558596814460271</v>
+        <v>0.1115474234423687</v>
       </c>
       <c r="AB41">
-        <v>3707.160622226997</v>
+        <v>3731.038219300349</v>
       </c>
       <c r="AC41">
-        <v>510.202750216306</v>
+        <v>471.732227680072</v>
       </c>
       <c r="AD41">
-        <v>218929.9855382718</v>
+        <v>297501.1202632929</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30">
+      <c r="A42">
+        <v>880</v>
+      </c>
+      <c r="B42">
+        <v>0.25</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>110</v>
+      </c>
+      <c r="E42">
+        <v>41</v>
+      </c>
+      <c r="F42">
+        <v>61</v>
+      </c>
+      <c r="G42">
+        <v>1.29</v>
+      </c>
+      <c r="H42">
+        <v>14</v>
+      </c>
+      <c r="I42">
+        <v>43</v>
+      </c>
+      <c r="J42">
+        <v>717.7343875466739</v>
+      </c>
+      <c r="K42">
+        <v>698.3200425728041</v>
+      </c>
+      <c r="L42">
+        <v>18.31390497386966</v>
+      </c>
+      <c r="M42">
+        <v>1.10044</v>
+      </c>
+      <c r="N42">
+        <v>1603.657346746274</v>
+      </c>
+      <c r="O42">
+        <v>17.18119955411284</v>
+      </c>
+      <c r="P42">
+        <v>49.89036023969207</v>
+      </c>
+      <c r="Q42">
+        <v>29.02232860960973</v>
+      </c>
+      <c r="R42">
+        <v>87.27794994601612</v>
+      </c>
+      <c r="S42">
+        <v>728.4994403560639</v>
+      </c>
+      <c r="T42">
+        <v>563.2991432123765</v>
+      </c>
+      <c r="U42">
+        <v>157.8748637480271</v>
+      </c>
+      <c r="V42">
+        <v>207.1658899358179</v>
+      </c>
+      <c r="W42">
+        <v>429.6044025961226</v>
+      </c>
+      <c r="X42">
+        <v>0.3</v>
+      </c>
+      <c r="Y42">
+        <v>45</v>
+      </c>
+      <c r="Z42">
+        <v>0.08115487120231253</v>
+      </c>
+      <c r="AA42">
+        <v>0.1133895591070413</v>
+      </c>
+      <c r="AB42">
+        <v>3708.372773612044</v>
+      </c>
+      <c r="AC42">
+        <v>477.2434207578984</v>
+      </c>
+      <c r="AD42">
+        <v>288050.6982336016</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30">
+      <c r="A43">
+        <v>860</v>
+      </c>
+      <c r="B43">
+        <v>0.25</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>110</v>
+      </c>
+      <c r="E43">
+        <v>41</v>
+      </c>
+      <c r="F43">
+        <v>61</v>
+      </c>
+      <c r="G43">
+        <v>1.29</v>
+      </c>
+      <c r="H43">
+        <v>14</v>
+      </c>
+      <c r="I43">
+        <v>43</v>
+      </c>
+      <c r="J43">
+        <v>728.0004608572908</v>
+      </c>
+      <c r="K43">
+        <v>708.5861158834211</v>
+      </c>
+      <c r="L43">
+        <v>18.31390497386966</v>
+      </c>
+      <c r="M43">
+        <v>1.10044</v>
+      </c>
+      <c r="N43">
+        <v>1558.528427917988</v>
+      </c>
+      <c r="O43">
+        <v>16.15766948341845</v>
+      </c>
+      <c r="P43">
+        <v>49.98330909088419</v>
+      </c>
+      <c r="Q43">
+        <v>26.87351084527774</v>
+      </c>
+      <c r="R43">
+        <v>86.2323475957979</v>
+      </c>
+      <c r="S43">
+        <v>718.1736905952379</v>
+      </c>
+      <c r="T43">
+        <v>532.6827284604531</v>
+      </c>
+      <c r="U43">
+        <v>157.8748637480271</v>
+      </c>
+      <c r="V43">
+        <v>207.1658899358179</v>
+      </c>
+      <c r="W43">
+        <v>427.8134465071196</v>
+      </c>
+      <c r="X43">
+        <v>0.33</v>
+      </c>
+      <c r="Y43">
+        <v>45</v>
+      </c>
+      <c r="Z43">
+        <v>0.08298846353835737</v>
+      </c>
+      <c r="AA43">
+        <v>0.1151449190709306</v>
+      </c>
+      <c r="AB43">
+        <v>3680.195375169619</v>
+      </c>
+      <c r="AC43">
+        <v>482.9633523200193</v>
+      </c>
+      <c r="AD43">
+        <v>278729.3346595394</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30">
+      <c r="A44">
+        <v>835</v>
+      </c>
+      <c r="B44">
+        <v>0.25</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>110</v>
+      </c>
+      <c r="E44">
+        <v>41</v>
+      </c>
+      <c r="F44">
+        <v>61</v>
+      </c>
+      <c r="G44">
+        <v>1.32</v>
+      </c>
+      <c r="H44">
+        <v>14</v>
+      </c>
+      <c r="I44">
+        <v>43</v>
+      </c>
+      <c r="J44">
+        <v>730.5665925368495</v>
+      </c>
+      <c r="K44">
+        <v>711.1522475629797</v>
+      </c>
+      <c r="L44">
+        <v>18.31390497386966</v>
+      </c>
+      <c r="M44">
+        <v>1.10044</v>
+      </c>
+      <c r="N44">
+        <v>1529.642435686097</v>
+      </c>
+      <c r="O44">
+        <v>14.97046371784374</v>
+      </c>
+      <c r="P44">
+        <v>50.24626035610049</v>
+      </c>
+      <c r="Q44">
+        <v>24.44683110650895</v>
+      </c>
+      <c r="R44">
+        <v>85.20880308377224</v>
+      </c>
+      <c r="S44">
+        <v>730.4968079695241</v>
+      </c>
+      <c r="T44">
+        <v>495.9141423749636</v>
+      </c>
+      <c r="U44">
+        <v>157.8748637480271</v>
+      </c>
+      <c r="V44">
+        <v>207.1658899358179</v>
+      </c>
+      <c r="W44">
+        <v>438.7805478131307</v>
+      </c>
+      <c r="X44">
+        <v>0.27</v>
+      </c>
+      <c r="Y44">
+        <v>45</v>
+      </c>
+      <c r="Z44">
+        <v>0.08555344764839208</v>
+      </c>
+      <c r="AA44">
+        <v>0.1176235545441026</v>
+      </c>
+      <c r="AB44">
+        <v>3650.130738607339</v>
+      </c>
+      <c r="AC44">
+        <v>492.4590129221676</v>
+      </c>
+      <c r="AD44">
+        <v>267259.11864519</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30">
+      <c r="A45">
+        <v>815</v>
+      </c>
+      <c r="B45">
+        <v>0.25</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>110</v>
+      </c>
+      <c r="E45">
+        <v>41</v>
+      </c>
+      <c r="F45">
+        <v>61</v>
+      </c>
+      <c r="G45">
+        <v>1.32</v>
+      </c>
+      <c r="H45">
+        <v>14</v>
+      </c>
+      <c r="I45">
+        <v>43</v>
+      </c>
+      <c r="J45">
+        <v>740.9444583341379</v>
+      </c>
+      <c r="K45">
+        <v>721.5301133602683</v>
+      </c>
+      <c r="L45">
+        <v>18.31390497386966</v>
+      </c>
+      <c r="M45">
+        <v>1.10044</v>
+      </c>
+      <c r="N45">
+        <v>1486.869873061825</v>
+      </c>
+      <c r="O45">
+        <v>14.02759116196236</v>
+      </c>
+      <c r="P45">
+        <v>50.32545408468441</v>
+      </c>
+      <c r="Q45">
+        <v>22.59677939400886</v>
+      </c>
+      <c r="R45">
+        <v>84.30939390971666</v>
+      </c>
+      <c r="S45">
+        <v>719.6169032356372</v>
+      </c>
+      <c r="T45">
+        <v>467.6798473910644</v>
+      </c>
+      <c r="U45">
+        <v>157.8748637480271</v>
+      </c>
+      <c r="V45">
+        <v>207.1658899358179</v>
+      </c>
+      <c r="W45">
+        <v>436.8069243810238</v>
+      </c>
+      <c r="X45">
+        <v>0.3</v>
+      </c>
+      <c r="Y45">
+        <v>45</v>
+      </c>
+      <c r="Z45">
+        <v>0.08756197663518024</v>
+      </c>
+      <c r="AA45">
+        <v>0.1196526239117026</v>
+      </c>
+      <c r="AB45">
+        <v>3624.160984608757</v>
+      </c>
+      <c r="AC45">
+        <v>498.2693827712915</v>
+      </c>
+      <c r="AD45">
+        <v>258228.1365962932</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30">
+      <c r="A46">
+        <v>800</v>
+      </c>
+      <c r="B46">
+        <v>0.25</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>110</v>
+      </c>
+      <c r="E46">
+        <v>41</v>
+      </c>
+      <c r="F46">
+        <v>61</v>
+      </c>
+      <c r="G46">
+        <v>1.32</v>
+      </c>
+      <c r="H46">
+        <v>14</v>
+      </c>
+      <c r="I46">
+        <v>43</v>
+      </c>
+      <c r="J46">
+        <v>751.5578534570734</v>
+      </c>
+      <c r="K46">
+        <v>732.1435084832037</v>
+      </c>
+      <c r="L46">
+        <v>18.31390497386966</v>
+      </c>
+      <c r="M46">
+        <v>1.10044</v>
+      </c>
+      <c r="N46">
+        <v>1455.816300261878</v>
+      </c>
+      <c r="O46">
+        <v>13.36045033210419</v>
+      </c>
+      <c r="P46">
+        <v>50.45052304019698</v>
+      </c>
+      <c r="Q46">
+        <v>21.33159184594388</v>
+      </c>
+      <c r="R46">
+        <v>83.81998900790931</v>
+      </c>
+      <c r="S46">
+        <v>711.3884186898005</v>
+      </c>
+      <c r="T46">
+        <v>447.1815016375594</v>
+      </c>
+      <c r="U46">
+        <v>157.8748637480271</v>
+      </c>
+      <c r="V46">
+        <v>207.1658899358179</v>
+      </c>
+      <c r="W46">
+        <v>434.9859420628461</v>
+      </c>
+      <c r="X46">
+        <v>0.33</v>
+      </c>
+      <c r="Y46">
+        <v>45</v>
+      </c>
+      <c r="Z46">
+        <v>0.08920267122136497</v>
+      </c>
+      <c r="AA46">
+        <v>0.1213550698497038</v>
+      </c>
+      <c r="AB46">
+        <v>3608.075001184793</v>
+      </c>
+      <c r="AC46">
+        <v>504.2955489767581</v>
+      </c>
+      <c r="AD46">
+        <v>251539.5946711272</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30">
+      <c r="A47">
+        <v>785</v>
+      </c>
+      <c r="B47">
+        <v>0.25</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>110</v>
+      </c>
+      <c r="E47">
+        <v>41</v>
+      </c>
+      <c r="F47">
+        <v>61</v>
+      </c>
+      <c r="G47">
+        <v>1.35</v>
+      </c>
+      <c r="H47">
+        <v>14</v>
+      </c>
+      <c r="I47">
+        <v>43</v>
+      </c>
+      <c r="J47">
+        <v>753.6346696319214</v>
+      </c>
+      <c r="K47">
+        <v>734.2203246580518</v>
+      </c>
+      <c r="L47">
+        <v>18.31390497386966</v>
+      </c>
+      <c r="M47">
+        <v>1.10044</v>
+      </c>
+      <c r="N47">
+        <v>1450.90899496745</v>
+      </c>
+      <c r="O47">
+        <v>12.74318672714572</v>
+      </c>
+      <c r="P47">
+        <v>50.71485427573665</v>
+      </c>
+      <c r="Q47">
+        <v>20.23496185018703</v>
+      </c>
+      <c r="R47">
+        <v>83.75088182848185</v>
+      </c>
+      <c r="S47">
+        <v>727.9527465008592</v>
+      </c>
+      <c r="T47">
+        <v>427.2556972886517</v>
+      </c>
+      <c r="U47">
+        <v>157.8748637480271</v>
+      </c>
+      <c r="V47">
+        <v>207.1658899358179</v>
+      </c>
+      <c r="W47">
+        <v>445.9702393399672</v>
+      </c>
+      <c r="X47">
+        <v>0.27</v>
+      </c>
+      <c r="Y47">
+        <v>45</v>
+      </c>
+      <c r="Z47">
+        <v>0.09106037168334317</v>
+      </c>
+      <c r="AA47">
+        <v>0.1233954225363039</v>
+      </c>
+      <c r="AB47">
+        <v>3599.949025556132</v>
+      </c>
+      <c r="AC47">
+        <v>513.3971846445851</v>
+      </c>
+      <c r="AD47">
+        <v>244923.6481272526</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30">
+      <c r="A48">
+        <v>770</v>
+      </c>
+      <c r="B48">
+        <v>0.25</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>110</v>
+      </c>
+      <c r="E48">
+        <v>41</v>
+      </c>
+      <c r="F48">
+        <v>61</v>
+      </c>
+      <c r="G48">
+        <v>1.35</v>
+      </c>
+      <c r="H48">
+        <v>14</v>
+      </c>
+      <c r="I48">
+        <v>43</v>
+      </c>
+      <c r="J48">
+        <v>764.3552695790938</v>
+      </c>
+      <c r="K48">
+        <v>744.9409246052242</v>
+      </c>
+      <c r="L48">
+        <v>18.31390497386966</v>
+      </c>
+      <c r="M48">
+        <v>1.10044</v>
+      </c>
+      <c r="N48">
+        <v>1421.006444970163</v>
+      </c>
+      <c r="O48">
+        <v>12.12082173638136</v>
+      </c>
+      <c r="P48">
+        <v>50.87534766689551</v>
+      </c>
+      <c r="Q48">
+        <v>19.11030997699293</v>
+      </c>
+      <c r="R48">
+        <v>83.4353077676281</v>
+      </c>
+      <c r="S48">
+        <v>719.3373524341604</v>
+      </c>
+      <c r="T48">
+        <v>407.8951748062121</v>
+      </c>
+      <c r="U48">
+        <v>157.8748637480271</v>
+      </c>
+      <c r="V48">
+        <v>207.1658899358179</v>
+      </c>
+      <c r="W48">
+        <v>443.9642768633477</v>
+      </c>
+      <c r="X48">
+        <v>0.3</v>
+      </c>
+      <c r="Y48">
+        <v>45</v>
+      </c>
+      <c r="Z48">
+        <v>0.09286157891183179</v>
+      </c>
+      <c r="AA48">
+        <v>0.1253396657593912</v>
+      </c>
+      <c r="AB48">
+        <v>3586.797864496101</v>
+      </c>
+      <c r="AC48">
+        <v>519.5097824822575</v>
+      </c>
+      <c r="AD48">
+        <v>238380.2969646694</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30">
+      <c r="A49">
+        <v>755</v>
+      </c>
+      <c r="B49">
+        <v>0.25</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <v>110</v>
+      </c>
+      <c r="E49">
+        <v>41</v>
+      </c>
+      <c r="F49">
+        <v>61</v>
+      </c>
+      <c r="G49">
+        <v>1.35</v>
+      </c>
+      <c r="H49">
+        <v>14</v>
+      </c>
+      <c r="I49">
+        <v>43</v>
+      </c>
+      <c r="J49">
+        <v>775.3188520420999</v>
+      </c>
+      <c r="K49">
+        <v>755.9045070682303</v>
+      </c>
+      <c r="L49">
+        <v>18.31390497386966</v>
+      </c>
+      <c r="M49">
+        <v>1.10044</v>
+      </c>
+      <c r="N49">
+        <v>1391.07355096898</v>
+      </c>
+      <c r="O49">
+        <v>11.48596494419552</v>
+      </c>
+      <c r="P49">
+        <v>50.8771121170814</v>
+      </c>
+      <c r="Q49">
+        <v>17.9494745784772</v>
+      </c>
+      <c r="R49">
+        <v>82.8024458359958</v>
+      </c>
+      <c r="S49">
+        <v>710.6559249406487</v>
+      </c>
+      <c r="T49">
+        <v>389.0926746521112</v>
+      </c>
+      <c r="U49">
+        <v>157.8748637480271</v>
+      </c>
+      <c r="V49">
+        <v>207.1658899358179</v>
+      </c>
+      <c r="W49">
+        <v>442.1134566200187</v>
+      </c>
+      <c r="X49">
+        <v>0.33</v>
+      </c>
+      <c r="Y49">
+        <v>45</v>
+      </c>
+      <c r="Z49">
+        <v>0.09453836137505102</v>
+      </c>
+      <c r="AA49">
+        <v>0.1271337202162675</v>
+      </c>
+      <c r="AB49">
+        <v>3567.264831904727</v>
+      </c>
+      <c r="AC49">
+        <v>525.8453065295134</v>
+      </c>
+      <c r="AD49">
+        <v>231909.5411833775</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30">
+      <c r="A50">
+        <v>740</v>
+      </c>
+      <c r="B50">
+        <v>0.25</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>110</v>
+      </c>
+      <c r="E50">
+        <v>41</v>
+      </c>
+      <c r="F50">
+        <v>61</v>
+      </c>
+      <c r="G50">
+        <v>1.38</v>
+      </c>
+      <c r="H50">
+        <v>14</v>
+      </c>
+      <c r="I50">
+        <v>43</v>
+      </c>
+      <c r="J50">
+        <v>787.9645573444899</v>
+      </c>
+      <c r="K50">
+        <v>768.5502123706202</v>
+      </c>
+      <c r="L50">
+        <v>18.31390497386966</v>
+      </c>
+      <c r="M50">
+        <v>1.10044</v>
+      </c>
+      <c r="N50">
+        <v>1387.932655765789</v>
+      </c>
+      <c r="O50">
+        <v>10.92352726506188</v>
+      </c>
+      <c r="P50">
+        <v>51.15323359582446</v>
+      </c>
+      <c r="Q50">
+        <v>17.13218532573778</v>
+      </c>
+      <c r="R50">
+        <v>83.39594987968105</v>
+      </c>
+      <c r="S50">
+        <v>726.2969219846196</v>
+      </c>
+      <c r="T50">
+        <v>370.84093728822</v>
+      </c>
+      <c r="U50">
+        <v>157.8748637480271</v>
+      </c>
+      <c r="V50">
+        <v>207.1658899358179</v>
+      </c>
+      <c r="W50">
+        <v>451.0777379052781</v>
+      </c>
+      <c r="X50">
+        <v>0.3</v>
+      </c>
+      <c r="Y50">
+        <v>45</v>
+      </c>
+      <c r="Z50">
+        <v>0.09660846489311486</v>
+      </c>
+      <c r="AA50">
+        <v>0.1298533579325584</v>
+      </c>
+      <c r="AB50">
+        <v>3571.186651038754</v>
+      </c>
+      <c r="AC50">
+        <v>540.9619684519654</v>
+      </c>
+      <c r="AD50">
+        <v>225511.380783377</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30">
+      <c r="A51">
+        <v>735</v>
+      </c>
+      <c r="B51">
+        <v>0.25</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>110</v>
+      </c>
+      <c r="E51">
+        <v>41</v>
+      </c>
+      <c r="F51">
+        <v>61</v>
+      </c>
+      <c r="G51">
+        <v>1.38</v>
+      </c>
+      <c r="H51">
+        <v>14</v>
+      </c>
+      <c r="I51">
+        <v>43</v>
+      </c>
+      <c r="J51">
+        <v>799.281161347816</v>
+      </c>
+      <c r="K51">
+        <v>779.8668163739463</v>
+      </c>
+      <c r="L51">
+        <v>18.31390497386966</v>
+      </c>
+      <c r="M51">
+        <v>1.10044</v>
+      </c>
+      <c r="N51">
+        <v>1379.404347684324</v>
+      </c>
+      <c r="O51">
+        <v>10.77103617552671</v>
+      </c>
+      <c r="P51">
+        <v>51.41862454524576</v>
+      </c>
+      <c r="Q51">
+        <v>16.94370222590198</v>
+      </c>
+      <c r="R51">
+        <v>83.93555772598138</v>
+      </c>
+      <c r="S51">
+        <v>723.2736145759692</v>
+      </c>
+      <c r="T51">
+        <v>364.8781618297621</v>
+      </c>
+      <c r="U51">
+        <v>157.8748637480271</v>
+      </c>
+      <c r="V51">
+        <v>207.1658899358179</v>
+      </c>
+      <c r="W51">
+        <v>449.197262713606</v>
+      </c>
+      <c r="X51">
+        <v>0.33</v>
+      </c>
+      <c r="Y51">
+        <v>45</v>
+      </c>
+      <c r="Z51">
+        <v>0.09752614361288993</v>
+      </c>
+      <c r="AA51">
+        <v>0.1310232807797146</v>
+      </c>
+      <c r="AB51">
+        <v>3579.014468007912</v>
+      </c>
+      <c r="AC51">
+        <v>547.6099349223185</v>
+      </c>
+      <c r="AD51">
+        <v>223394.7929569972</v>
       </c>
     </row>
   </sheetData>
